--- a/スケジュール（2023-04）.xlsx
+++ b/スケジュール（2023-04）.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kochy\Desktop\202304\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kochy\Desktop\2023-04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B469F527-FEA4-4758-9DEC-0EF8411D5C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03C493B-0668-4D5C-9A66-538E059EF8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,55 +382,55 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -958,10 +958,10 @@
   <dimension ref="B1:DB9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="AB31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="CI17" sqref="CI17"/>
+      <selection pane="bottomRight" activeCell="AH23" sqref="AH23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
@@ -1026,362 +1026,362 @@
       <c r="E4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14" t="s">
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="T4" s="14" t="s">
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="T4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14" t="s">
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" s="14"/>
-      <c r="AB4" s="14"/>
-      <c r="AC4" s="14"/>
-      <c r="AD4" s="14"/>
-      <c r="AE4" s="14"/>
-      <c r="AF4" s="14"/>
-      <c r="AH4" s="14" t="s">
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="19"/>
+      <c r="AH4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="AI4" s="14"/>
-      <c r="AJ4" s="14"/>
-      <c r="AK4" s="14"/>
-      <c r="AL4" s="14"/>
-      <c r="AM4" s="14"/>
-      <c r="AN4" s="14" t="s">
+      <c r="AI4" s="19"/>
+      <c r="AJ4" s="19"/>
+      <c r="AK4" s="19"/>
+      <c r="AL4" s="19"/>
+      <c r="AM4" s="19"/>
+      <c r="AN4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="AO4" s="14"/>
-      <c r="AP4" s="14"/>
-      <c r="AQ4" s="14"/>
-      <c r="AR4" s="14"/>
-      <c r="AS4" s="14"/>
-      <c r="AT4" s="14"/>
-      <c r="AV4" s="14" t="s">
+      <c r="AO4" s="19"/>
+      <c r="AP4" s="19"/>
+      <c r="AQ4" s="19"/>
+      <c r="AR4" s="19"/>
+      <c r="AS4" s="19"/>
+      <c r="AT4" s="19"/>
+      <c r="AV4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AW4" s="14"/>
-      <c r="AX4" s="14"/>
-      <c r="AY4" s="14"/>
-      <c r="AZ4" s="14"/>
-      <c r="BA4" s="14"/>
-      <c r="BB4" s="14" t="s">
+      <c r="AW4" s="19"/>
+      <c r="AX4" s="19"/>
+      <c r="AY4" s="19"/>
+      <c r="AZ4" s="19"/>
+      <c r="BA4" s="19"/>
+      <c r="BB4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="BC4" s="14"/>
-      <c r="BD4" s="14"/>
-      <c r="BE4" s="14"/>
-      <c r="BF4" s="14"/>
-      <c r="BG4" s="14"/>
-      <c r="BH4" s="14"/>
-      <c r="BJ4" s="14" t="s">
+      <c r="BC4" s="19"/>
+      <c r="BD4" s="19"/>
+      <c r="BE4" s="19"/>
+      <c r="BF4" s="19"/>
+      <c r="BG4" s="19"/>
+      <c r="BH4" s="19"/>
+      <c r="BJ4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="BK4" s="14"/>
-      <c r="BL4" s="14"/>
-      <c r="BM4" s="14"/>
-      <c r="BN4" s="14"/>
-      <c r="BO4" s="14"/>
-      <c r="BP4" s="14" t="s">
+      <c r="BK4" s="19"/>
+      <c r="BL4" s="19"/>
+      <c r="BM4" s="19"/>
+      <c r="BN4" s="19"/>
+      <c r="BO4" s="19"/>
+      <c r="BP4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="BQ4" s="14"/>
-      <c r="BR4" s="14"/>
-      <c r="BS4" s="14"/>
-      <c r="BT4" s="14"/>
-      <c r="BU4" s="14"/>
-      <c r="BV4" s="14"/>
-      <c r="BW4" s="14"/>
-      <c r="BY4" s="14" t="s">
+      <c r="BQ4" s="19"/>
+      <c r="BR4" s="19"/>
+      <c r="BS4" s="19"/>
+      <c r="BT4" s="19"/>
+      <c r="BU4" s="19"/>
+      <c r="BV4" s="19"/>
+      <c r="BW4" s="19"/>
+      <c r="BY4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="BZ4" s="14"/>
-      <c r="CA4" s="14"/>
-      <c r="CB4" s="14"/>
-      <c r="CC4" s="14"/>
-      <c r="CD4" s="14"/>
-      <c r="CE4" s="14" t="s">
+      <c r="BZ4" s="19"/>
+      <c r="CA4" s="19"/>
+      <c r="CB4" s="19"/>
+      <c r="CC4" s="19"/>
+      <c r="CD4" s="19"/>
+      <c r="CE4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="CF4" s="14"/>
-      <c r="CG4" s="14"/>
-      <c r="CH4" s="14"/>
-      <c r="CI4" s="14"/>
-      <c r="CJ4" s="14"/>
-      <c r="CK4" s="14"/>
-      <c r="CM4" s="14" t="s">
+      <c r="CF4" s="19"/>
+      <c r="CG4" s="19"/>
+      <c r="CH4" s="19"/>
+      <c r="CI4" s="19"/>
+      <c r="CJ4" s="19"/>
+      <c r="CK4" s="19"/>
+      <c r="CM4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="CN4" s="14"/>
-      <c r="CO4" s="14"/>
-      <c r="CP4" s="14"/>
-      <c r="CQ4" s="14"/>
-      <c r="CR4" s="14"/>
-      <c r="CS4" s="14" t="s">
+      <c r="CN4" s="19"/>
+      <c r="CO4" s="19"/>
+      <c r="CP4" s="19"/>
+      <c r="CQ4" s="19"/>
+      <c r="CR4" s="19"/>
+      <c r="CS4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="CT4" s="14"/>
-      <c r="CU4" s="14"/>
-      <c r="CV4" s="14"/>
-      <c r="CW4" s="14"/>
-      <c r="CX4" s="14"/>
-      <c r="CY4" s="14"/>
-      <c r="CZ4" s="14"/>
+      <c r="CT4" s="19"/>
+      <c r="CU4" s="19"/>
+      <c r="CV4" s="19"/>
+      <c r="CW4" s="19"/>
+      <c r="CX4" s="19"/>
+      <c r="CY4" s="19"/>
+      <c r="CZ4" s="19"/>
     </row>
     <row r="5" spans="2:106" ht="14.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14" t="s">
+      <c r="H5" s="19"/>
+      <c r="I5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="18" t="s">
+      <c r="J5" s="19"/>
+      <c r="K5" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14" t="s">
+      <c r="N5" s="19"/>
+      <c r="O5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="18" t="s">
+      <c r="P5" s="19"/>
+      <c r="Q5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="18" t="s">
+      <c r="R5" s="14" t="s">
         <v>24</v>
       </c>
       <c r="T5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="14" t="s">
+      <c r="U5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14" t="s">
+      <c r="V5" s="19"/>
+      <c r="W5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="18" t="s">
+      <c r="X5" s="19"/>
+      <c r="Y5" s="14" t="s">
         <v>22</v>
       </c>
       <c r="Z5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="AA5" s="14" t="s">
+      <c r="AA5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14" t="s">
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="18" t="s">
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AF5" s="18" t="s">
+      <c r="AF5" s="14" t="s">
         <v>24</v>
       </c>
       <c r="AH5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AI5" s="14" t="s">
+      <c r="AI5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="AJ5" s="14"/>
-      <c r="AK5" s="14" t="s">
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="AL5" s="14"/>
-      <c r="AM5" s="18" t="s">
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="14" t="s">
         <v>22</v>
       </c>
       <c r="AN5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="AO5" s="14" t="s">
+      <c r="AO5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="AP5" s="14"/>
-      <c r="AQ5" s="14" t="s">
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="AR5" s="14"/>
-      <c r="AS5" s="18" t="s">
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AT5" s="18" t="s">
+      <c r="AT5" s="14" t="s">
         <v>24</v>
       </c>
       <c r="AV5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AW5" s="14" t="s">
+      <c r="AW5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="AX5" s="14"/>
-      <c r="AY5" s="14" t="s">
+      <c r="AX5" s="19"/>
+      <c r="AY5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="AZ5" s="14"/>
-      <c r="BA5" s="18" t="s">
+      <c r="AZ5" s="19"/>
+      <c r="BA5" s="14" t="s">
         <v>22</v>
       </c>
       <c r="BB5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="BC5" s="14" t="s">
+      <c r="BC5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="BD5" s="14"/>
-      <c r="BE5" s="14" t="s">
+      <c r="BD5" s="19"/>
+      <c r="BE5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="BF5" s="14"/>
-      <c r="BG5" s="18" t="s">
+      <c r="BF5" s="19"/>
+      <c r="BG5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="BH5" s="18" t="s">
+      <c r="BH5" s="14" t="s">
         <v>24</v>
       </c>
       <c r="BJ5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="BK5" s="14" t="s">
+      <c r="BK5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="BL5" s="14"/>
-      <c r="BM5" s="14" t="s">
+      <c r="BL5" s="19"/>
+      <c r="BM5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="BN5" s="14"/>
-      <c r="BO5" s="18" t="s">
+      <c r="BN5" s="19"/>
+      <c r="BO5" s="14" t="s">
         <v>22</v>
       </c>
       <c r="BP5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="BQ5" s="14" t="s">
+      <c r="BQ5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="BR5" s="14"/>
-      <c r="BS5" s="14" t="s">
+      <c r="BR5" s="19"/>
+      <c r="BS5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="BT5" s="14"/>
-      <c r="BU5" s="18" t="s">
+      <c r="BT5" s="19"/>
+      <c r="BU5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="BV5" s="18" t="s">
+      <c r="BV5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="BW5" s="18" t="s">
+      <c r="BW5" s="14" t="s">
         <v>25</v>
       </c>
       <c r="BY5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="BZ5" s="14" t="s">
+      <c r="BZ5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="CA5" s="14"/>
-      <c r="CB5" s="14" t="s">
+      <c r="CA5" s="19"/>
+      <c r="CB5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="CC5" s="14"/>
-      <c r="CD5" s="18" t="s">
+      <c r="CC5" s="19"/>
+      <c r="CD5" s="14" t="s">
         <v>22</v>
       </c>
       <c r="CE5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="CF5" s="14" t="s">
+      <c r="CF5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="CG5" s="14"/>
-      <c r="CH5" s="14" t="s">
+      <c r="CG5" s="19"/>
+      <c r="CH5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="CI5" s="14"/>
-      <c r="CJ5" s="18" t="s">
+      <c r="CI5" s="19"/>
+      <c r="CJ5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="CK5" s="18" t="s">
+      <c r="CK5" s="14" t="s">
         <v>24</v>
       </c>
       <c r="CM5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="CN5" s="14" t="s">
+      <c r="CN5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="CO5" s="14"/>
-      <c r="CP5" s="14" t="s">
+      <c r="CO5" s="19"/>
+      <c r="CP5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="CQ5" s="14"/>
-      <c r="CR5" s="18" t="s">
+      <c r="CQ5" s="19"/>
+      <c r="CR5" s="14" t="s">
         <v>22</v>
       </c>
       <c r="CS5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="CT5" s="14" t="s">
+      <c r="CT5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="CU5" s="14"/>
-      <c r="CV5" s="14" t="s">
+      <c r="CU5" s="19"/>
+      <c r="CV5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="CW5" s="14"/>
-      <c r="CX5" s="18" t="s">
+      <c r="CW5" s="19"/>
+      <c r="CX5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="CY5" s="18" t="s">
+      <c r="CY5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="CZ5" s="18" t="s">
+      <c r="CZ5" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:106" ht="14.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
       <c r="F6" s="15"/>
       <c r="G6" s="4" t="s">
         <v>26</v>
@@ -1629,10 +1629,18 @@
       <c r="N7" s="9">
         <v>45021</v>
       </c>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
+      <c r="O7" s="9">
+        <v>45021</v>
+      </c>
+      <c r="P7" s="9">
+        <v>45021</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>1</v>
+      </c>
+      <c r="R7" s="10">
+        <v>0.04</v>
+      </c>
       <c r="T7" s="13" t="s">
         <v>41</v>
       </c>
@@ -1642,9 +1650,15 @@
       <c r="V7" s="9">
         <v>45023</v>
       </c>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="10"/>
+      <c r="W7" s="9">
+        <v>45022</v>
+      </c>
+      <c r="X7" s="9">
+        <v>45023</v>
+      </c>
+      <c r="Y7" s="10">
+        <v>1</v>
+      </c>
       <c r="Z7" s="5" t="s">
         <v>40</v>
       </c>
@@ -1655,10 +1669,18 @@
         <f>AA7</f>
         <v>45026</v>
       </c>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="10"/>
-      <c r="AF7" s="10"/>
+      <c r="AC7" s="9">
+        <v>45026</v>
+      </c>
+      <c r="AD7" s="9">
+        <v>45026</v>
+      </c>
+      <c r="AE7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="AH7" s="13" t="str">
         <f>T7</f>
         <v>張　卓群、趙　博</v>
@@ -1747,72 +1769,72 @@
       <c r="BW7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="BY7" s="19" t="str">
+      <c r="BY7" s="26" t="str">
         <f>E7</f>
         <v>チーム1</v>
       </c>
-      <c r="BZ7" s="23">
+      <c r="BZ7" s="20">
         <f>BQ7+1</f>
         <v>45043</v>
       </c>
-      <c r="CA7" s="23">
+      <c r="CA7" s="20">
         <f>BZ7</f>
         <v>45043</v>
       </c>
-      <c r="CB7" s="23"/>
-      <c r="CC7" s="23"/>
-      <c r="CD7" s="26"/>
-      <c r="CE7" s="29" t="s">
+      <c r="CB7" s="20"/>
+      <c r="CC7" s="20"/>
+      <c r="CD7" s="23"/>
+      <c r="CE7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="CF7" s="22">
+      <c r="CF7" s="17">
         <f>CA7</f>
         <v>45043</v>
       </c>
-      <c r="CG7" s="22">
+      <c r="CG7" s="17">
         <f>CF7</f>
         <v>45043</v>
       </c>
-      <c r="CH7" s="22"/>
-      <c r="CI7" s="22"/>
-      <c r="CJ7" s="30"/>
-      <c r="CK7" s="26"/>
-      <c r="CM7" s="19" t="s">
+      <c r="CH7" s="17"/>
+      <c r="CI7" s="17"/>
+      <c r="CJ7" s="16"/>
+      <c r="CK7" s="23"/>
+      <c r="CM7" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="CN7" s="23">
+      <c r="CN7" s="20">
         <v>45044</v>
       </c>
-      <c r="CO7" s="23">
+      <c r="CO7" s="20">
         <f>CN7</f>
         <v>45044</v>
       </c>
-      <c r="CP7" s="23"/>
-      <c r="CQ7" s="23"/>
-      <c r="CR7" s="26"/>
-      <c r="CS7" s="29" t="s">
+      <c r="CP7" s="20"/>
+      <c r="CQ7" s="20"/>
+      <c r="CR7" s="23"/>
+      <c r="CS7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="CT7" s="22">
+      <c r="CT7" s="17">
         <f>CO7</f>
         <v>45044</v>
       </c>
-      <c r="CU7" s="22">
+      <c r="CU7" s="17">
         <f>CT7</f>
         <v>45044</v>
       </c>
-      <c r="CV7" s="22"/>
-      <c r="CW7" s="22"/>
-      <c r="CX7" s="30"/>
-      <c r="CY7" s="30"/>
-      <c r="CZ7" s="30"/>
+      <c r="CV7" s="17"/>
+      <c r="CW7" s="17"/>
+      <c r="CX7" s="16"/>
+      <c r="CY7" s="16"/>
+      <c r="CZ7" s="16"/>
       <c r="DB7" s="11"/>
     </row>
     <row r="8" spans="2:106" ht="42" customHeight="1">
       <c r="B8" s="5">
         <v>2</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="30" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -1848,10 +1870,18 @@
       <c r="N8" s="9">
         <v>45021</v>
       </c>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
+      <c r="O8" s="9">
+        <v>45021</v>
+      </c>
+      <c r="P8" s="9">
+        <v>45021</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>1</v>
+      </c>
+      <c r="R8" s="10">
+        <v>0.11</v>
+      </c>
       <c r="T8" s="13" t="s">
         <v>44</v>
       </c>
@@ -1861,9 +1891,15 @@
       <c r="V8" s="9">
         <v>45023</v>
       </c>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="10"/>
+      <c r="W8" s="9">
+        <v>45022</v>
+      </c>
+      <c r="X8" s="9">
+        <v>45023</v>
+      </c>
+      <c r="Y8" s="10">
+        <v>1</v>
+      </c>
       <c r="Z8" s="5" t="s">
         <v>44</v>
       </c>
@@ -1874,10 +1910,18 @@
         <f t="shared" ref="AB8:AB9" si="0">AA8</f>
         <v>45026</v>
       </c>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="10"/>
-      <c r="AF8" s="10"/>
+      <c r="AC8" s="9">
+        <v>45026</v>
+      </c>
+      <c r="AD8" s="9">
+        <v>45026</v>
+      </c>
+      <c r="AE8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="10">
+        <v>0.13</v>
+      </c>
       <c r="AH8" s="13" t="str">
         <f t="shared" ref="AH8:AH9" si="1">T8</f>
         <v>馬　広超、張　秋実、濱　遼太郎、張碩</v>
@@ -1967,39 +2011,39 @@
       <c r="BU8" s="10"/>
       <c r="BV8" s="10"/>
       <c r="BW8" s="10"/>
-      <c r="BY8" s="20"/>
-      <c r="BZ8" s="24"/>
-      <c r="CA8" s="24"/>
-      <c r="CB8" s="24"/>
-      <c r="CC8" s="24"/>
-      <c r="CD8" s="27"/>
-      <c r="CE8" s="29"/>
-      <c r="CF8" s="22"/>
-      <c r="CG8" s="22"/>
-      <c r="CH8" s="22"/>
-      <c r="CI8" s="22"/>
-      <c r="CJ8" s="30"/>
-      <c r="CK8" s="27"/>
-      <c r="CM8" s="20"/>
-      <c r="CN8" s="24"/>
-      <c r="CO8" s="24"/>
-      <c r="CP8" s="24"/>
-      <c r="CQ8" s="24"/>
-      <c r="CR8" s="27"/>
-      <c r="CS8" s="29"/>
-      <c r="CT8" s="22"/>
-      <c r="CU8" s="22"/>
-      <c r="CV8" s="22"/>
-      <c r="CW8" s="22"/>
-      <c r="CX8" s="30"/>
-      <c r="CY8" s="30"/>
-      <c r="CZ8" s="30"/>
+      <c r="BY8" s="27"/>
+      <c r="BZ8" s="21"/>
+      <c r="CA8" s="21"/>
+      <c r="CB8" s="21"/>
+      <c r="CC8" s="21"/>
+      <c r="CD8" s="24"/>
+      <c r="CE8" s="18"/>
+      <c r="CF8" s="17"/>
+      <c r="CG8" s="17"/>
+      <c r="CH8" s="17"/>
+      <c r="CI8" s="17"/>
+      <c r="CJ8" s="16"/>
+      <c r="CK8" s="24"/>
+      <c r="CM8" s="27"/>
+      <c r="CN8" s="21"/>
+      <c r="CO8" s="21"/>
+      <c r="CP8" s="21"/>
+      <c r="CQ8" s="21"/>
+      <c r="CR8" s="24"/>
+      <c r="CS8" s="18"/>
+      <c r="CT8" s="17"/>
+      <c r="CU8" s="17"/>
+      <c r="CV8" s="17"/>
+      <c r="CW8" s="17"/>
+      <c r="CX8" s="16"/>
+      <c r="CY8" s="16"/>
+      <c r="CZ8" s="16"/>
     </row>
     <row r="9" spans="2:106" ht="48.75" customHeight="1">
       <c r="B9" s="5">
         <v>3</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="7" t="s">
         <v>31</v>
       </c>
@@ -2033,10 +2077,18 @@
       <c r="N9" s="9">
         <v>45021</v>
       </c>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
+      <c r="O9" s="9">
+        <v>45021</v>
+      </c>
+      <c r="P9" s="9">
+        <v>45021</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>1</v>
+      </c>
+      <c r="R9" s="10">
+        <v>0.11</v>
+      </c>
       <c r="T9" s="13" t="s">
         <v>44</v>
       </c>
@@ -2046,9 +2098,15 @@
       <c r="V9" s="9">
         <v>45023</v>
       </c>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="10"/>
+      <c r="W9" s="9">
+        <v>45022</v>
+      </c>
+      <c r="X9" s="9">
+        <v>45023</v>
+      </c>
+      <c r="Y9" s="10">
+        <v>1</v>
+      </c>
       <c r="Z9" s="5" t="s">
         <v>44</v>
       </c>
@@ -2059,10 +2117,18 @@
         <f t="shared" si="0"/>
         <v>45026</v>
       </c>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
+      <c r="AC9" s="9">
+        <v>45026</v>
+      </c>
+      <c r="AD9" s="9">
+        <v>45026</v>
+      </c>
+      <c r="AE9" s="10">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="10">
+        <v>0.13</v>
+      </c>
       <c r="AH9" s="13" t="str">
         <f t="shared" si="1"/>
         <v>馬　広超、張　秋実、濱　遼太郎、張碩</v>
@@ -2149,99 +2215,60 @@
       <c r="BU9" s="10"/>
       <c r="BV9" s="10"/>
       <c r="BW9" s="10"/>
-      <c r="BY9" s="21"/>
-      <c r="BZ9" s="25"/>
-      <c r="CA9" s="25"/>
-      <c r="CB9" s="25"/>
-      <c r="CC9" s="25"/>
-      <c r="CD9" s="28"/>
-      <c r="CE9" s="29"/>
-      <c r="CF9" s="22"/>
-      <c r="CG9" s="22"/>
-      <c r="CH9" s="22"/>
-      <c r="CI9" s="22"/>
-      <c r="CJ9" s="30"/>
-      <c r="CK9" s="28"/>
-      <c r="CM9" s="21"/>
-      <c r="CN9" s="25"/>
-      <c r="CO9" s="25"/>
-      <c r="CP9" s="25"/>
-      <c r="CQ9" s="25"/>
-      <c r="CR9" s="28"/>
-      <c r="CS9" s="29"/>
-      <c r="CT9" s="22"/>
-      <c r="CU9" s="22"/>
-      <c r="CV9" s="22"/>
-      <c r="CW9" s="22"/>
-      <c r="CX9" s="30"/>
-      <c r="CY9" s="30"/>
-      <c r="CZ9" s="30"/>
+      <c r="BY9" s="28"/>
+      <c r="BZ9" s="22"/>
+      <c r="CA9" s="22"/>
+      <c r="CB9" s="22"/>
+      <c r="CC9" s="22"/>
+      <c r="CD9" s="25"/>
+      <c r="CE9" s="18"/>
+      <c r="CF9" s="17"/>
+      <c r="CG9" s="17"/>
+      <c r="CH9" s="17"/>
+      <c r="CI9" s="17"/>
+      <c r="CJ9" s="16"/>
+      <c r="CK9" s="25"/>
+      <c r="CM9" s="28"/>
+      <c r="CN9" s="22"/>
+      <c r="CO9" s="22"/>
+      <c r="CP9" s="22"/>
+      <c r="CQ9" s="22"/>
+      <c r="CR9" s="25"/>
+      <c r="CS9" s="18"/>
+      <c r="CT9" s="17"/>
+      <c r="CU9" s="17"/>
+      <c r="CV9" s="17"/>
+      <c r="CW9" s="17"/>
+      <c r="CX9" s="16"/>
+      <c r="CY9" s="16"/>
+      <c r="CZ9" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CY7:CY9"/>
-    <mergeCell ref="CZ5:CZ6"/>
-    <mergeCell ref="CZ7:CZ9"/>
-    <mergeCell ref="CV7:CV9"/>
-    <mergeCell ref="CW7:CW9"/>
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CX7:CX9"/>
-    <mergeCell ref="CS7:CS9"/>
-    <mergeCell ref="CT7:CT9"/>
-    <mergeCell ref="CU7:CU9"/>
-    <mergeCell ref="CT5:CU5"/>
-    <mergeCell ref="CV5:CW5"/>
-    <mergeCell ref="CS5:CS6"/>
-    <mergeCell ref="CP7:CP9"/>
-    <mergeCell ref="CQ7:CQ9"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CR7:CR9"/>
-    <mergeCell ref="CM7:CM9"/>
-    <mergeCell ref="CN7:CN9"/>
-    <mergeCell ref="CO7:CO9"/>
-    <mergeCell ref="CI7:CI9"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CJ7:CJ9"/>
-    <mergeCell ref="CK5:CK6"/>
-    <mergeCell ref="CK7:CK9"/>
-    <mergeCell ref="CN5:CO5"/>
-    <mergeCell ref="CP5:CQ5"/>
-    <mergeCell ref="CM5:CM6"/>
-    <mergeCell ref="CF7:CF9"/>
-    <mergeCell ref="CG7:CG9"/>
-    <mergeCell ref="CH7:CH9"/>
-    <mergeCell ref="CC7:CC9"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="CD7:CD9"/>
-    <mergeCell ref="CE5:CE6"/>
-    <mergeCell ref="CE7:CE9"/>
-    <mergeCell ref="BZ7:BZ9"/>
-    <mergeCell ref="CA7:CA9"/>
-    <mergeCell ref="CB7:CB9"/>
-    <mergeCell ref="CB5:CC5"/>
-    <mergeCell ref="CF5:CG5"/>
-    <mergeCell ref="CH5:CI5"/>
-    <mergeCell ref="BY5:BY6"/>
-    <mergeCell ref="BY7:BY9"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BP5:BP6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BW5:BW6"/>
+    <mergeCell ref="CE4:CK4"/>
+    <mergeCell ref="CM4:CR4"/>
+    <mergeCell ref="CS4:CZ4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BM5:BN5"/>
+    <mergeCell ref="BQ5:BR5"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:R4"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C8:C9"/>
@@ -2266,30 +2293,69 @@
     <mergeCell ref="T5:T6"/>
     <mergeCell ref="Y5:Y6"/>
     <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="CE4:CK4"/>
-    <mergeCell ref="CM4:CR4"/>
-    <mergeCell ref="CS4:CZ4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BM5:BN5"/>
-    <mergeCell ref="BQ5:BR5"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:R4"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BW5:BW6"/>
+    <mergeCell ref="BY5:BY6"/>
+    <mergeCell ref="BY7:BY9"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="CF7:CF9"/>
+    <mergeCell ref="CG7:CG9"/>
+    <mergeCell ref="CH7:CH9"/>
+    <mergeCell ref="CC7:CC9"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="CD7:CD9"/>
+    <mergeCell ref="CE5:CE6"/>
+    <mergeCell ref="CE7:CE9"/>
+    <mergeCell ref="BZ7:BZ9"/>
+    <mergeCell ref="CA7:CA9"/>
+    <mergeCell ref="CB7:CB9"/>
+    <mergeCell ref="CB5:CC5"/>
+    <mergeCell ref="CF5:CG5"/>
+    <mergeCell ref="CH5:CI5"/>
+    <mergeCell ref="CP7:CP9"/>
+    <mergeCell ref="CQ7:CQ9"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CR7:CR9"/>
+    <mergeCell ref="CM7:CM9"/>
+    <mergeCell ref="CN7:CN9"/>
+    <mergeCell ref="CO7:CO9"/>
+    <mergeCell ref="CI7:CI9"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CJ7:CJ9"/>
+    <mergeCell ref="CK5:CK6"/>
+    <mergeCell ref="CK7:CK9"/>
+    <mergeCell ref="CN5:CO5"/>
+    <mergeCell ref="CP5:CQ5"/>
+    <mergeCell ref="CM5:CM6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CY7:CY9"/>
+    <mergeCell ref="CZ5:CZ6"/>
+    <mergeCell ref="CZ7:CZ9"/>
+    <mergeCell ref="CV7:CV9"/>
+    <mergeCell ref="CW7:CW9"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CX7:CX9"/>
+    <mergeCell ref="CS7:CS9"/>
+    <mergeCell ref="CT7:CT9"/>
+    <mergeCell ref="CU7:CU9"/>
+    <mergeCell ref="CT5:CU5"/>
+    <mergeCell ref="CV5:CW5"/>
+    <mergeCell ref="CS5:CS6"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="L7:L9">

--- a/スケジュール（2023-04）.xlsx
+++ b/スケジュール（2023-04）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kochy\Desktop\2023-04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F03C493B-0668-4D5C-9A66-538E059EF8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3249A1CC-D599-40BE-978A-D1815D5AF6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,55 +382,55 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -438,147 +438,7 @@
     <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
     <cellStyle name="標準_システム管理" xfId="1" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
-  <dxfs count="35">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -958,10 +818,10 @@
   <dimension ref="B1:DB9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="AB31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH23" sqref="AH23"/>
+      <selection pane="bottomRight" activeCell="AY23" sqref="AY23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
@@ -1026,362 +886,362 @@
       <c r="E4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="T4" s="19" t="s">
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="T4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19" t="s">
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AH4" s="19" t="s">
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AH4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="19"/>
-      <c r="AM4" s="19"/>
-      <c r="AN4" s="19" t="s">
+      <c r="AI4" s="14"/>
+      <c r="AJ4" s="14"/>
+      <c r="AK4" s="14"/>
+      <c r="AL4" s="14"/>
+      <c r="AM4" s="14"/>
+      <c r="AN4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AO4" s="19"/>
-      <c r="AP4" s="19"/>
-      <c r="AQ4" s="19"/>
-      <c r="AR4" s="19"/>
-      <c r="AS4" s="19"/>
-      <c r="AT4" s="19"/>
-      <c r="AV4" s="19" t="s">
+      <c r="AO4" s="14"/>
+      <c r="AP4" s="14"/>
+      <c r="AQ4" s="14"/>
+      <c r="AR4" s="14"/>
+      <c r="AS4" s="14"/>
+      <c r="AT4" s="14"/>
+      <c r="AV4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AW4" s="19"/>
-      <c r="AX4" s="19"/>
-      <c r="AY4" s="19"/>
-      <c r="AZ4" s="19"/>
-      <c r="BA4" s="19"/>
-      <c r="BB4" s="19" t="s">
+      <c r="AW4" s="14"/>
+      <c r="AX4" s="14"/>
+      <c r="AY4" s="14"/>
+      <c r="AZ4" s="14"/>
+      <c r="BA4" s="14"/>
+      <c r="BB4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="BC4" s="19"/>
-      <c r="BD4" s="19"/>
-      <c r="BE4" s="19"/>
-      <c r="BF4" s="19"/>
-      <c r="BG4" s="19"/>
-      <c r="BH4" s="19"/>
-      <c r="BJ4" s="19" t="s">
+      <c r="BC4" s="14"/>
+      <c r="BD4" s="14"/>
+      <c r="BE4" s="14"/>
+      <c r="BF4" s="14"/>
+      <c r="BG4" s="14"/>
+      <c r="BH4" s="14"/>
+      <c r="BJ4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="BK4" s="19"/>
-      <c r="BL4" s="19"/>
-      <c r="BM4" s="19"/>
-      <c r="BN4" s="19"/>
-      <c r="BO4" s="19"/>
-      <c r="BP4" s="19" t="s">
+      <c r="BK4" s="14"/>
+      <c r="BL4" s="14"/>
+      <c r="BM4" s="14"/>
+      <c r="BN4" s="14"/>
+      <c r="BO4" s="14"/>
+      <c r="BP4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="BQ4" s="19"/>
-      <c r="BR4" s="19"/>
-      <c r="BS4" s="19"/>
-      <c r="BT4" s="19"/>
-      <c r="BU4" s="19"/>
-      <c r="BV4" s="19"/>
-      <c r="BW4" s="19"/>
-      <c r="BY4" s="19" t="s">
+      <c r="BQ4" s="14"/>
+      <c r="BR4" s="14"/>
+      <c r="BS4" s="14"/>
+      <c r="BT4" s="14"/>
+      <c r="BU4" s="14"/>
+      <c r="BV4" s="14"/>
+      <c r="BW4" s="14"/>
+      <c r="BY4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="BZ4" s="19"/>
-      <c r="CA4" s="19"/>
-      <c r="CB4" s="19"/>
-      <c r="CC4" s="19"/>
-      <c r="CD4" s="19"/>
-      <c r="CE4" s="19" t="s">
+      <c r="BZ4" s="14"/>
+      <c r="CA4" s="14"/>
+      <c r="CB4" s="14"/>
+      <c r="CC4" s="14"/>
+      <c r="CD4" s="14"/>
+      <c r="CE4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="CF4" s="19"/>
-      <c r="CG4" s="19"/>
-      <c r="CH4" s="19"/>
-      <c r="CI4" s="19"/>
-      <c r="CJ4" s="19"/>
-      <c r="CK4" s="19"/>
-      <c r="CM4" s="19" t="s">
+      <c r="CF4" s="14"/>
+      <c r="CG4" s="14"/>
+      <c r="CH4" s="14"/>
+      <c r="CI4" s="14"/>
+      <c r="CJ4" s="14"/>
+      <c r="CK4" s="14"/>
+      <c r="CM4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="CN4" s="19"/>
-      <c r="CO4" s="19"/>
-      <c r="CP4" s="19"/>
-      <c r="CQ4" s="19"/>
-      <c r="CR4" s="19"/>
-      <c r="CS4" s="19" t="s">
+      <c r="CN4" s="14"/>
+      <c r="CO4" s="14"/>
+      <c r="CP4" s="14"/>
+      <c r="CQ4" s="14"/>
+      <c r="CR4" s="14"/>
+      <c r="CS4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="CT4" s="19"/>
-      <c r="CU4" s="19"/>
-      <c r="CV4" s="19"/>
-      <c r="CW4" s="19"/>
-      <c r="CX4" s="19"/>
-      <c r="CY4" s="19"/>
-      <c r="CZ4" s="19"/>
+      <c r="CT4" s="14"/>
+      <c r="CU4" s="14"/>
+      <c r="CV4" s="14"/>
+      <c r="CW4" s="14"/>
+      <c r="CX4" s="14"/>
+      <c r="CY4" s="14"/>
+      <c r="CZ4" s="14"/>
     </row>
     <row r="5" spans="2:106" ht="14.25">
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19" t="s">
+      <c r="H5" s="14"/>
+      <c r="I5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="19"/>
-      <c r="K5" s="14" t="s">
+      <c r="J5" s="14"/>
+      <c r="K5" s="18" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19" t="s">
+      <c r="N5" s="14"/>
+      <c r="O5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="14" t="s">
+      <c r="P5" s="14"/>
+      <c r="Q5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="14" t="s">
+      <c r="R5" s="18" t="s">
         <v>24</v>
       </c>
       <c r="T5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="19" t="s">
+      <c r="U5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19" t="s">
+      <c r="V5" s="14"/>
+      <c r="W5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="14" t="s">
+      <c r="X5" s="14"/>
+      <c r="Y5" s="18" t="s">
         <v>22</v>
       </c>
       <c r="Z5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="AA5" s="19" t="s">
+      <c r="AA5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19" t="s">
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="14" t="s">
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="AF5" s="14" t="s">
+      <c r="AF5" s="18" t="s">
         <v>24</v>
       </c>
       <c r="AH5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AI5" s="19" t="s">
+      <c r="AI5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="19" t="s">
+      <c r="AJ5" s="14"/>
+      <c r="AK5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AL5" s="19"/>
-      <c r="AM5" s="14" t="s">
+      <c r="AL5" s="14"/>
+      <c r="AM5" s="18" t="s">
         <v>22</v>
       </c>
       <c r="AN5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="AO5" s="19" t="s">
+      <c r="AO5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="AP5" s="19"/>
-      <c r="AQ5" s="19" t="s">
+      <c r="AP5" s="14"/>
+      <c r="AQ5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AR5" s="19"/>
-      <c r="AS5" s="14" t="s">
+      <c r="AR5" s="14"/>
+      <c r="AS5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="AT5" s="14" t="s">
+      <c r="AT5" s="18" t="s">
         <v>24</v>
       </c>
       <c r="AV5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AW5" s="19" t="s">
+      <c r="AW5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="AX5" s="19"/>
-      <c r="AY5" s="19" t="s">
+      <c r="AX5" s="14"/>
+      <c r="AY5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AZ5" s="19"/>
-      <c r="BA5" s="14" t="s">
+      <c r="AZ5" s="14"/>
+      <c r="BA5" s="18" t="s">
         <v>22</v>
       </c>
       <c r="BB5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="BC5" s="19" t="s">
+      <c r="BC5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="BD5" s="19"/>
-      <c r="BE5" s="19" t="s">
+      <c r="BD5" s="14"/>
+      <c r="BE5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="BF5" s="19"/>
-      <c r="BG5" s="14" t="s">
+      <c r="BF5" s="14"/>
+      <c r="BG5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="BH5" s="14" t="s">
+      <c r="BH5" s="18" t="s">
         <v>24</v>
       </c>
       <c r="BJ5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="BK5" s="19" t="s">
+      <c r="BK5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="BL5" s="19"/>
-      <c r="BM5" s="19" t="s">
+      <c r="BL5" s="14"/>
+      <c r="BM5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="BN5" s="19"/>
-      <c r="BO5" s="14" t="s">
+      <c r="BN5" s="14"/>
+      <c r="BO5" s="18" t="s">
         <v>22</v>
       </c>
       <c r="BP5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="BQ5" s="19" t="s">
+      <c r="BQ5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="BR5" s="19"/>
-      <c r="BS5" s="19" t="s">
+      <c r="BR5" s="14"/>
+      <c r="BS5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="BT5" s="19"/>
-      <c r="BU5" s="14" t="s">
+      <c r="BT5" s="14"/>
+      <c r="BU5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="BV5" s="14" t="s">
+      <c r="BV5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="BW5" s="14" t="s">
+      <c r="BW5" s="18" t="s">
         <v>25</v>
       </c>
       <c r="BY5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="BZ5" s="19" t="s">
+      <c r="BZ5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="CA5" s="19"/>
-      <c r="CB5" s="19" t="s">
+      <c r="CA5" s="14"/>
+      <c r="CB5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="CC5" s="19"/>
-      <c r="CD5" s="14" t="s">
+      <c r="CC5" s="14"/>
+      <c r="CD5" s="18" t="s">
         <v>22</v>
       </c>
       <c r="CE5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="CF5" s="19" t="s">
+      <c r="CF5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="CG5" s="19"/>
-      <c r="CH5" s="19" t="s">
+      <c r="CG5" s="14"/>
+      <c r="CH5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="CI5" s="19"/>
-      <c r="CJ5" s="14" t="s">
+      <c r="CI5" s="14"/>
+      <c r="CJ5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="CK5" s="14" t="s">
+      <c r="CK5" s="18" t="s">
         <v>24</v>
       </c>
       <c r="CM5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="CN5" s="19" t="s">
+      <c r="CN5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="CO5" s="19"/>
-      <c r="CP5" s="19" t="s">
+      <c r="CO5" s="14"/>
+      <c r="CP5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="CQ5" s="19"/>
-      <c r="CR5" s="14" t="s">
+      <c r="CQ5" s="14"/>
+      <c r="CR5" s="18" t="s">
         <v>22</v>
       </c>
       <c r="CS5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="CT5" s="19" t="s">
+      <c r="CT5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="CU5" s="19"/>
-      <c r="CV5" s="19" t="s">
+      <c r="CU5" s="14"/>
+      <c r="CV5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="CW5" s="19"/>
-      <c r="CX5" s="14" t="s">
+      <c r="CW5" s="14"/>
+      <c r="CX5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="CY5" s="14" t="s">
+      <c r="CY5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="CZ5" s="14" t="s">
+      <c r="CZ5" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:106" ht="14.25">
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
       <c r="F6" s="15"/>
       <c r="G6" s="4" t="s">
         <v>26</v>
@@ -1691,9 +1551,15 @@
       <c r="AJ7" s="9">
         <v>45037</v>
       </c>
-      <c r="AK7" s="9"/>
-      <c r="AL7" s="9"/>
-      <c r="AM7" s="10"/>
+      <c r="AK7" s="9">
+        <v>45027</v>
+      </c>
+      <c r="AL7" s="9">
+        <v>45036</v>
+      </c>
+      <c r="AM7" s="10">
+        <v>1</v>
+      </c>
       <c r="AN7" s="5" t="s">
         <v>40</v>
       </c>
@@ -1704,10 +1570,18 @@
         <f>AO7</f>
         <v>45040</v>
       </c>
-      <c r="AQ7" s="9"/>
-      <c r="AR7" s="9"/>
-      <c r="AS7" s="10"/>
-      <c r="AT7" s="10"/>
+      <c r="AQ7" s="9">
+        <v>45037</v>
+      </c>
+      <c r="AR7" s="9">
+        <v>45037</v>
+      </c>
+      <c r="AS7" s="10">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="10">
+        <v>0.02</v>
+      </c>
       <c r="AV7" s="13" t="str">
         <f>AH7</f>
         <v>張　卓群、趙　博</v>
@@ -1720,7 +1594,9 @@
         <f>AW7</f>
         <v>45041</v>
       </c>
-      <c r="AY7" s="9"/>
+      <c r="AY7" s="9">
+        <v>45040</v>
+      </c>
       <c r="AZ7" s="9"/>
       <c r="BA7" s="10"/>
       <c r="BB7" s="5" t="s">
@@ -1769,72 +1645,72 @@
       <c r="BW7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="BY7" s="26" t="str">
+      <c r="BY7" s="19" t="str">
         <f>E7</f>
         <v>チーム1</v>
       </c>
-      <c r="BZ7" s="20">
+      <c r="BZ7" s="23">
         <f>BQ7+1</f>
         <v>45043</v>
       </c>
-      <c r="CA7" s="20">
+      <c r="CA7" s="23">
         <f>BZ7</f>
         <v>45043</v>
       </c>
-      <c r="CB7" s="20"/>
-      <c r="CC7" s="20"/>
-      <c r="CD7" s="23"/>
-      <c r="CE7" s="18" t="s">
+      <c r="CB7" s="23"/>
+      <c r="CC7" s="23"/>
+      <c r="CD7" s="26"/>
+      <c r="CE7" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="CF7" s="17">
+      <c r="CF7" s="22">
         <f>CA7</f>
         <v>45043</v>
       </c>
-      <c r="CG7" s="17">
+      <c r="CG7" s="22">
         <f>CF7</f>
         <v>45043</v>
       </c>
-      <c r="CH7" s="17"/>
-      <c r="CI7" s="17"/>
-      <c r="CJ7" s="16"/>
-      <c r="CK7" s="23"/>
-      <c r="CM7" s="26" t="s">
+      <c r="CH7" s="22"/>
+      <c r="CI7" s="22"/>
+      <c r="CJ7" s="30"/>
+      <c r="CK7" s="26"/>
+      <c r="CM7" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="CN7" s="20">
+      <c r="CN7" s="23">
         <v>45044</v>
       </c>
-      <c r="CO7" s="20">
+      <c r="CO7" s="23">
         <f>CN7</f>
         <v>45044</v>
       </c>
-      <c r="CP7" s="20"/>
-      <c r="CQ7" s="20"/>
-      <c r="CR7" s="23"/>
-      <c r="CS7" s="18" t="s">
+      <c r="CP7" s="23"/>
+      <c r="CQ7" s="23"/>
+      <c r="CR7" s="26"/>
+      <c r="CS7" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="CT7" s="17">
+      <c r="CT7" s="22">
         <f>CO7</f>
         <v>45044</v>
       </c>
-      <c r="CU7" s="17">
+      <c r="CU7" s="22">
         <f>CT7</f>
         <v>45044</v>
       </c>
-      <c r="CV7" s="17"/>
-      <c r="CW7" s="17"/>
-      <c r="CX7" s="16"/>
-      <c r="CY7" s="16"/>
-      <c r="CZ7" s="16"/>
+      <c r="CV7" s="22"/>
+      <c r="CW7" s="22"/>
+      <c r="CX7" s="30"/>
+      <c r="CY7" s="30"/>
+      <c r="CZ7" s="30"/>
       <c r="DB7" s="11"/>
     </row>
     <row r="8" spans="2:106" ht="42" customHeight="1">
       <c r="B8" s="5">
         <v>2</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="17" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -1932,9 +1808,15 @@
       <c r="AJ8" s="9">
         <v>45037</v>
       </c>
-      <c r="AK8" s="9"/>
-      <c r="AL8" s="9"/>
-      <c r="AM8" s="10"/>
+      <c r="AK8" s="9">
+        <v>45027</v>
+      </c>
+      <c r="AL8" s="9">
+        <v>45036</v>
+      </c>
+      <c r="AM8" s="10">
+        <v>1</v>
+      </c>
       <c r="AN8" s="5" t="str">
         <f>AH9</f>
         <v>馬　広超、張　秋実、濱　遼太郎、張碩</v>
@@ -1946,10 +1828,18 @@
         <f t="shared" ref="AP8:AP9" si="2">AO8</f>
         <v>45040</v>
       </c>
-      <c r="AQ8" s="9"/>
-      <c r="AR8" s="9"/>
-      <c r="AS8" s="10"/>
-      <c r="AT8" s="10"/>
+      <c r="AQ8" s="9">
+        <v>45037</v>
+      </c>
+      <c r="AR8" s="9">
+        <v>45037</v>
+      </c>
+      <c r="AS8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="10">
+        <v>0.06</v>
+      </c>
       <c r="AV8" s="13" t="s">
         <v>44</v>
       </c>
@@ -1961,7 +1851,9 @@
         <f t="shared" ref="AX8:AX9" si="4">AW8</f>
         <v>45041</v>
       </c>
-      <c r="AY8" s="9"/>
+      <c r="AY8" s="9">
+        <v>45040</v>
+      </c>
       <c r="AZ8" s="9"/>
       <c r="BA8" s="10"/>
       <c r="BB8" s="5" t="str">
@@ -2011,39 +1903,39 @@
       <c r="BU8" s="10"/>
       <c r="BV8" s="10"/>
       <c r="BW8" s="10"/>
-      <c r="BY8" s="27"/>
-      <c r="BZ8" s="21"/>
-      <c r="CA8" s="21"/>
-      <c r="CB8" s="21"/>
-      <c r="CC8" s="21"/>
-      <c r="CD8" s="24"/>
-      <c r="CE8" s="18"/>
-      <c r="CF8" s="17"/>
-      <c r="CG8" s="17"/>
-      <c r="CH8" s="17"/>
-      <c r="CI8" s="17"/>
-      <c r="CJ8" s="16"/>
-      <c r="CK8" s="24"/>
-      <c r="CM8" s="27"/>
-      <c r="CN8" s="21"/>
-      <c r="CO8" s="21"/>
-      <c r="CP8" s="21"/>
-      <c r="CQ8" s="21"/>
-      <c r="CR8" s="24"/>
-      <c r="CS8" s="18"/>
-      <c r="CT8" s="17"/>
-      <c r="CU8" s="17"/>
-      <c r="CV8" s="17"/>
-      <c r="CW8" s="17"/>
-      <c r="CX8" s="16"/>
-      <c r="CY8" s="16"/>
-      <c r="CZ8" s="16"/>
+      <c r="BY8" s="20"/>
+      <c r="BZ8" s="24"/>
+      <c r="CA8" s="24"/>
+      <c r="CB8" s="24"/>
+      <c r="CC8" s="24"/>
+      <c r="CD8" s="27"/>
+      <c r="CE8" s="29"/>
+      <c r="CF8" s="22"/>
+      <c r="CG8" s="22"/>
+      <c r="CH8" s="22"/>
+      <c r="CI8" s="22"/>
+      <c r="CJ8" s="30"/>
+      <c r="CK8" s="27"/>
+      <c r="CM8" s="20"/>
+      <c r="CN8" s="24"/>
+      <c r="CO8" s="24"/>
+      <c r="CP8" s="24"/>
+      <c r="CQ8" s="24"/>
+      <c r="CR8" s="27"/>
+      <c r="CS8" s="29"/>
+      <c r="CT8" s="22"/>
+      <c r="CU8" s="22"/>
+      <c r="CV8" s="22"/>
+      <c r="CW8" s="22"/>
+      <c r="CX8" s="30"/>
+      <c r="CY8" s="30"/>
+      <c r="CZ8" s="30"/>
     </row>
     <row r="9" spans="2:106" ht="48.75" customHeight="1">
       <c r="B9" s="5">
         <v>3</v>
       </c>
-      <c r="C9" s="30"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="7" t="s">
         <v>31</v>
       </c>
@@ -2139,9 +2031,15 @@
       <c r="AJ9" s="9">
         <v>45037</v>
       </c>
-      <c r="AK9" s="9"/>
-      <c r="AL9" s="9"/>
-      <c r="AM9" s="10"/>
+      <c r="AK9" s="9">
+        <v>45027</v>
+      </c>
+      <c r="AL9" s="9">
+        <v>45036</v>
+      </c>
+      <c r="AM9" s="10">
+        <v>1</v>
+      </c>
       <c r="AN9" s="5" t="s">
         <v>44</v>
       </c>
@@ -2152,10 +2050,18 @@
         <f t="shared" si="2"/>
         <v>45040</v>
       </c>
-      <c r="AQ9" s="9"/>
-      <c r="AR9" s="9"/>
-      <c r="AS9" s="10"/>
-      <c r="AT9" s="10"/>
+      <c r="AQ9" s="9">
+        <v>45037</v>
+      </c>
+      <c r="AR9" s="9">
+        <v>45037</v>
+      </c>
+      <c r="AS9" s="10">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="10">
+        <v>0.08</v>
+      </c>
       <c r="AV9" s="13" t="str">
         <f t="shared" ref="AV9" si="10">AH9</f>
         <v>馬　広超、張　秋実、濱　遼太郎、張碩</v>
@@ -2168,7 +2074,9 @@
         <f t="shared" si="4"/>
         <v>45041</v>
       </c>
-      <c r="AY9" s="9"/>
+      <c r="AY9" s="9">
+        <v>45040</v>
+      </c>
       <c r="AZ9" s="9"/>
       <c r="BA9" s="10"/>
       <c r="BB9" s="5" t="s">
@@ -2215,36 +2123,123 @@
       <c r="BU9" s="10"/>
       <c r="BV9" s="10"/>
       <c r="BW9" s="10"/>
-      <c r="BY9" s="28"/>
-      <c r="BZ9" s="22"/>
-      <c r="CA9" s="22"/>
-      <c r="CB9" s="22"/>
-      <c r="CC9" s="22"/>
-      <c r="CD9" s="25"/>
-      <c r="CE9" s="18"/>
-      <c r="CF9" s="17"/>
-      <c r="CG9" s="17"/>
-      <c r="CH9" s="17"/>
-      <c r="CI9" s="17"/>
-      <c r="CJ9" s="16"/>
-      <c r="CK9" s="25"/>
-      <c r="CM9" s="28"/>
-      <c r="CN9" s="22"/>
-      <c r="CO9" s="22"/>
-      <c r="CP9" s="22"/>
-      <c r="CQ9" s="22"/>
-      <c r="CR9" s="25"/>
-      <c r="CS9" s="18"/>
-      <c r="CT9" s="17"/>
-      <c r="CU9" s="17"/>
-      <c r="CV9" s="17"/>
-      <c r="CW9" s="17"/>
-      <c r="CX9" s="16"/>
-      <c r="CY9" s="16"/>
-      <c r="CZ9" s="16"/>
+      <c r="BY9" s="21"/>
+      <c r="BZ9" s="25"/>
+      <c r="CA9" s="25"/>
+      <c r="CB9" s="25"/>
+      <c r="CC9" s="25"/>
+      <c r="CD9" s="28"/>
+      <c r="CE9" s="29"/>
+      <c r="CF9" s="22"/>
+      <c r="CG9" s="22"/>
+      <c r="CH9" s="22"/>
+      <c r="CI9" s="22"/>
+      <c r="CJ9" s="30"/>
+      <c r="CK9" s="28"/>
+      <c r="CM9" s="21"/>
+      <c r="CN9" s="25"/>
+      <c r="CO9" s="25"/>
+      <c r="CP9" s="25"/>
+      <c r="CQ9" s="25"/>
+      <c r="CR9" s="28"/>
+      <c r="CS9" s="29"/>
+      <c r="CT9" s="22"/>
+      <c r="CU9" s="22"/>
+      <c r="CV9" s="22"/>
+      <c r="CW9" s="22"/>
+      <c r="CX9" s="30"/>
+      <c r="CY9" s="30"/>
+      <c r="CZ9" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="111">
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CY7:CY9"/>
+    <mergeCell ref="CZ5:CZ6"/>
+    <mergeCell ref="CZ7:CZ9"/>
+    <mergeCell ref="CV7:CV9"/>
+    <mergeCell ref="CW7:CW9"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CX7:CX9"/>
+    <mergeCell ref="CS7:CS9"/>
+    <mergeCell ref="CT7:CT9"/>
+    <mergeCell ref="CU7:CU9"/>
+    <mergeCell ref="CT5:CU5"/>
+    <mergeCell ref="CV5:CW5"/>
+    <mergeCell ref="CS5:CS6"/>
+    <mergeCell ref="CP7:CP9"/>
+    <mergeCell ref="CQ7:CQ9"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CR7:CR9"/>
+    <mergeCell ref="CM7:CM9"/>
+    <mergeCell ref="CN7:CN9"/>
+    <mergeCell ref="CO7:CO9"/>
+    <mergeCell ref="CI7:CI9"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CJ7:CJ9"/>
+    <mergeCell ref="CK5:CK6"/>
+    <mergeCell ref="CK7:CK9"/>
+    <mergeCell ref="CN5:CO5"/>
+    <mergeCell ref="CP5:CQ5"/>
+    <mergeCell ref="CM5:CM6"/>
+    <mergeCell ref="CF7:CF9"/>
+    <mergeCell ref="CG7:CG9"/>
+    <mergeCell ref="CH7:CH9"/>
+    <mergeCell ref="CC7:CC9"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="CD7:CD9"/>
+    <mergeCell ref="CE5:CE6"/>
+    <mergeCell ref="CE7:CE9"/>
+    <mergeCell ref="BZ7:BZ9"/>
+    <mergeCell ref="CA7:CA9"/>
+    <mergeCell ref="CB7:CB9"/>
+    <mergeCell ref="CB5:CC5"/>
+    <mergeCell ref="CF5:CG5"/>
+    <mergeCell ref="CH5:CI5"/>
+    <mergeCell ref="BY5:BY6"/>
+    <mergeCell ref="BY7:BY9"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BW5:BW6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="BZ5:CA5"/>
+    <mergeCell ref="BP4:BW4"/>
+    <mergeCell ref="BY4:CD4"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="Z4:AF4"/>
+    <mergeCell ref="AH4:AM4"/>
+    <mergeCell ref="AN4:AT4"/>
+    <mergeCell ref="AV4:BA4"/>
+    <mergeCell ref="BB4:BH4"/>
+    <mergeCell ref="BJ4:BO4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
     <mergeCell ref="CE4:CK4"/>
     <mergeCell ref="CM4:CR4"/>
     <mergeCell ref="CS4:CZ4"/>
@@ -2269,268 +2264,81 @@
     <mergeCell ref="BQ5:BR5"/>
     <mergeCell ref="F4:K4"/>
     <mergeCell ref="L4:R4"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="BZ5:CA5"/>
-    <mergeCell ref="BP4:BW4"/>
-    <mergeCell ref="BY4:CD4"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="Z4:AF4"/>
-    <mergeCell ref="AH4:AM4"/>
-    <mergeCell ref="AN4:AT4"/>
-    <mergeCell ref="AV4:BA4"/>
-    <mergeCell ref="BB4:BH4"/>
-    <mergeCell ref="BJ4:BO4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BP5:BP6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BW5:BW6"/>
-    <mergeCell ref="BY5:BY6"/>
-    <mergeCell ref="BY7:BY9"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="CF7:CF9"/>
-    <mergeCell ref="CG7:CG9"/>
-    <mergeCell ref="CH7:CH9"/>
-    <mergeCell ref="CC7:CC9"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="CD7:CD9"/>
-    <mergeCell ref="CE5:CE6"/>
-    <mergeCell ref="CE7:CE9"/>
-    <mergeCell ref="BZ7:BZ9"/>
-    <mergeCell ref="CA7:CA9"/>
-    <mergeCell ref="CB7:CB9"/>
-    <mergeCell ref="CB5:CC5"/>
-    <mergeCell ref="CF5:CG5"/>
-    <mergeCell ref="CH5:CI5"/>
-    <mergeCell ref="CP7:CP9"/>
-    <mergeCell ref="CQ7:CQ9"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CR7:CR9"/>
-    <mergeCell ref="CM7:CM9"/>
-    <mergeCell ref="CN7:CN9"/>
-    <mergeCell ref="CO7:CO9"/>
-    <mergeCell ref="CI7:CI9"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CJ7:CJ9"/>
-    <mergeCell ref="CK5:CK6"/>
-    <mergeCell ref="CK7:CK9"/>
-    <mergeCell ref="CN5:CO5"/>
-    <mergeCell ref="CP5:CQ5"/>
-    <mergeCell ref="CM5:CM6"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CY7:CY9"/>
-    <mergeCell ref="CZ5:CZ6"/>
-    <mergeCell ref="CZ7:CZ9"/>
-    <mergeCell ref="CV7:CV9"/>
-    <mergeCell ref="CW7:CW9"/>
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CX7:CX9"/>
-    <mergeCell ref="CS7:CS9"/>
-    <mergeCell ref="CT7:CT9"/>
-    <mergeCell ref="CU7:CU9"/>
-    <mergeCell ref="CT5:CU5"/>
-    <mergeCell ref="CV5:CW5"/>
-    <mergeCell ref="CS5:CS6"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
-  <conditionalFormatting sqref="L7:L9">
-    <cfRule type="expression" dxfId="34" priority="73">
-      <formula>$P7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O7">
-    <cfRule type="expression" dxfId="33" priority="44">
-      <formula>$P7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X7 AA7:AB9 T8:V9">
-    <cfRule type="expression" dxfId="32" priority="36">
-      <formula>$X7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK7 AH8:AJ9">
-    <cfRule type="expression" dxfId="31" priority="33">
-      <formula>$AL7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL7">
-    <cfRule type="expression" dxfId="30" priority="31">
-      <formula>$AL7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN7:AT9">
-    <cfRule type="expression" dxfId="29" priority="63">
-      <formula>$AR7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM9">
-    <cfRule type="expression" dxfId="28" priority="29">
-      <formula>$P9&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7:I9 F9">
-    <cfRule type="expression" dxfId="27" priority="43">
-      <formula>$J7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7:J9">
-    <cfRule type="expression" dxfId="26" priority="42">
-      <formula>$J7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K7:K9">
-    <cfRule type="expression" dxfId="25" priority="41">
-      <formula>$J7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P7:P9">
-    <cfRule type="expression" dxfId="24" priority="40">
-      <formula>$P7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q7:Q9">
-    <cfRule type="expression" dxfId="23" priority="38">
-      <formula>$P7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R7:R9">
-    <cfRule type="expression" dxfId="22" priority="39">
-      <formula>$P7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W7:W9">
-    <cfRule type="expression" dxfId="21" priority="37">
-      <formula>$X7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X8:X9">
-    <cfRule type="expression" dxfId="20" priority="35">
-      <formula>$X8&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y7:Y9">
-    <cfRule type="expression" dxfId="19" priority="34">
-      <formula>$P7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK8:AK9">
-    <cfRule type="expression" dxfId="18" priority="32">
-      <formula>$AL8&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL8:AL9">
-    <cfRule type="expression" dxfId="17" priority="30">
-      <formula>$AL8&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AM7:AM8">
-    <cfRule type="expression" dxfId="16" priority="28">
-      <formula>$P7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7:G7 G9">
-    <cfRule type="expression" dxfId="15" priority="67">
-      <formula>$J7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7 H9">
+  <conditionalFormatting sqref="F7:K9">
     <cfRule type="expression" dxfId="14" priority="4">
       <formula>$J7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M7 M9">
-    <cfRule type="expression" dxfId="13" priority="24">
+  <conditionalFormatting sqref="L7:L9">
+    <cfRule type="expression" dxfId="13" priority="73">
+      <formula>$P7&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7:N9">
+    <cfRule type="expression" dxfId="12" priority="1">
       <formula>$J7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N7 N9">
-    <cfRule type="expression" dxfId="12" priority="2">
-      <formula>$J7&lt;&gt;""</formula>
+  <conditionalFormatting sqref="O7:R9">
+    <cfRule type="expression" dxfId="11" priority="38">
+      <formula>$P7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T7:V7">
-    <cfRule type="expression" dxfId="11" priority="71">
+  <conditionalFormatting sqref="T7:X9">
+    <cfRule type="expression" dxfId="10" priority="35">
       <formula>$X7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="Y7:Y9">
+    <cfRule type="expression" dxfId="9" priority="34">
+      <formula>$P7&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="Z7:Z9 AC7:AF9">
-    <cfRule type="expression" dxfId="10" priority="69">
+    <cfRule type="expression" dxfId="8" priority="69">
       <formula>$AD7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH7:AJ7">
-    <cfRule type="expression" dxfId="9" priority="64">
+  <conditionalFormatting sqref="AA7:AB9">
+    <cfRule type="expression" dxfId="7" priority="36">
+      <formula>$X7&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH7:AL9">
+    <cfRule type="expression" dxfId="6" priority="30">
       <formula>$AL7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AM7:AM9">
+    <cfRule type="expression" dxfId="5" priority="28">
+      <formula>$P7&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN7:AT9">
+    <cfRule type="expression" dxfId="4" priority="63">
+      <formula>$AR7&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AV7:BA9">
-    <cfRule type="expression" dxfId="8" priority="58">
+    <cfRule type="expression" dxfId="3" priority="58">
       <formula>$AZ7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB7:BH9">
-    <cfRule type="expression" dxfId="7" priority="57">
+    <cfRule type="expression" dxfId="2" priority="57">
       <formula>$BF7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ7:BO9">
-    <cfRule type="expression" dxfId="6" priority="52">
+    <cfRule type="expression" dxfId="1" priority="52">
       <formula>$BN7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP7:BW9">
-    <cfRule type="expression" dxfId="5" priority="51">
+    <cfRule type="expression" dxfId="0" priority="51">
       <formula>$BT7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8:G8">
-    <cfRule type="expression" dxfId="4" priority="74">
-      <formula>$J8&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H8">
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>$J8&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O8:O9">
-    <cfRule type="expression" dxfId="2" priority="72">
-      <formula>$P8&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M8">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>$J8&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N8">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$J8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/スケジュール（2023-04）.xlsx
+++ b/スケジュール（2023-04）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kochy\Desktop\2023-04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3249A1CC-D599-40BE-978A-D1815D5AF6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E57CEA-0C13-4D90-AFC2-411C8DDE02ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -382,55 +382,55 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -818,10 +818,10 @@
   <dimension ref="B1:DB9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="BZ7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AY23" sqref="AY23"/>
+      <selection pane="bottomRight" activeCell="CP24" sqref="CP24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
@@ -886,362 +886,362 @@
       <c r="E4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14" t="s">
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="T4" s="14" t="s">
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="T4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14" t="s">
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
+      <c r="W4" s="19"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="19"/>
+      <c r="Z4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" s="14"/>
-      <c r="AB4" s="14"/>
-      <c r="AC4" s="14"/>
-      <c r="AD4" s="14"/>
-      <c r="AE4" s="14"/>
-      <c r="AF4" s="14"/>
-      <c r="AH4" s="14" t="s">
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
+      <c r="AD4" s="19"/>
+      <c r="AE4" s="19"/>
+      <c r="AF4" s="19"/>
+      <c r="AH4" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="AI4" s="14"/>
-      <c r="AJ4" s="14"/>
-      <c r="AK4" s="14"/>
-      <c r="AL4" s="14"/>
-      <c r="AM4" s="14"/>
-      <c r="AN4" s="14" t="s">
+      <c r="AI4" s="19"/>
+      <c r="AJ4" s="19"/>
+      <c r="AK4" s="19"/>
+      <c r="AL4" s="19"/>
+      <c r="AM4" s="19"/>
+      <c r="AN4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="AO4" s="14"/>
-      <c r="AP4" s="14"/>
-      <c r="AQ4" s="14"/>
-      <c r="AR4" s="14"/>
-      <c r="AS4" s="14"/>
-      <c r="AT4" s="14"/>
-      <c r="AV4" s="14" t="s">
+      <c r="AO4" s="19"/>
+      <c r="AP4" s="19"/>
+      <c r="AQ4" s="19"/>
+      <c r="AR4" s="19"/>
+      <c r="AS4" s="19"/>
+      <c r="AT4" s="19"/>
+      <c r="AV4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="AW4" s="14"/>
-      <c r="AX4" s="14"/>
-      <c r="AY4" s="14"/>
-      <c r="AZ4" s="14"/>
-      <c r="BA4" s="14"/>
-      <c r="BB4" s="14" t="s">
+      <c r="AW4" s="19"/>
+      <c r="AX4" s="19"/>
+      <c r="AY4" s="19"/>
+      <c r="AZ4" s="19"/>
+      <c r="BA4" s="19"/>
+      <c r="BB4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="BC4" s="14"/>
-      <c r="BD4" s="14"/>
-      <c r="BE4" s="14"/>
-      <c r="BF4" s="14"/>
-      <c r="BG4" s="14"/>
-      <c r="BH4" s="14"/>
-      <c r="BJ4" s="14" t="s">
+      <c r="BC4" s="19"/>
+      <c r="BD4" s="19"/>
+      <c r="BE4" s="19"/>
+      <c r="BF4" s="19"/>
+      <c r="BG4" s="19"/>
+      <c r="BH4" s="19"/>
+      <c r="BJ4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="BK4" s="14"/>
-      <c r="BL4" s="14"/>
-      <c r="BM4" s="14"/>
-      <c r="BN4" s="14"/>
-      <c r="BO4" s="14"/>
-      <c r="BP4" s="14" t="s">
+      <c r="BK4" s="19"/>
+      <c r="BL4" s="19"/>
+      <c r="BM4" s="19"/>
+      <c r="BN4" s="19"/>
+      <c r="BO4" s="19"/>
+      <c r="BP4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="BQ4" s="14"/>
-      <c r="BR4" s="14"/>
-      <c r="BS4" s="14"/>
-      <c r="BT4" s="14"/>
-      <c r="BU4" s="14"/>
-      <c r="BV4" s="14"/>
-      <c r="BW4" s="14"/>
-      <c r="BY4" s="14" t="s">
+      <c r="BQ4" s="19"/>
+      <c r="BR4" s="19"/>
+      <c r="BS4" s="19"/>
+      <c r="BT4" s="19"/>
+      <c r="BU4" s="19"/>
+      <c r="BV4" s="19"/>
+      <c r="BW4" s="19"/>
+      <c r="BY4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="BZ4" s="14"/>
-      <c r="CA4" s="14"/>
-      <c r="CB4" s="14"/>
-      <c r="CC4" s="14"/>
-      <c r="CD4" s="14"/>
-      <c r="CE4" s="14" t="s">
+      <c r="BZ4" s="19"/>
+      <c r="CA4" s="19"/>
+      <c r="CB4" s="19"/>
+      <c r="CC4" s="19"/>
+      <c r="CD4" s="19"/>
+      <c r="CE4" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="CF4" s="14"/>
-      <c r="CG4" s="14"/>
-      <c r="CH4" s="14"/>
-      <c r="CI4" s="14"/>
-      <c r="CJ4" s="14"/>
-      <c r="CK4" s="14"/>
-      <c r="CM4" s="14" t="s">
+      <c r="CF4" s="19"/>
+      <c r="CG4" s="19"/>
+      <c r="CH4" s="19"/>
+      <c r="CI4" s="19"/>
+      <c r="CJ4" s="19"/>
+      <c r="CK4" s="19"/>
+      <c r="CM4" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="CN4" s="14"/>
-      <c r="CO4" s="14"/>
-      <c r="CP4" s="14"/>
-      <c r="CQ4" s="14"/>
-      <c r="CR4" s="14"/>
-      <c r="CS4" s="14" t="s">
+      <c r="CN4" s="19"/>
+      <c r="CO4" s="19"/>
+      <c r="CP4" s="19"/>
+      <c r="CQ4" s="19"/>
+      <c r="CR4" s="19"/>
+      <c r="CS4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="CT4" s="14"/>
-      <c r="CU4" s="14"/>
-      <c r="CV4" s="14"/>
-      <c r="CW4" s="14"/>
-      <c r="CX4" s="14"/>
-      <c r="CY4" s="14"/>
-      <c r="CZ4" s="14"/>
+      <c r="CT4" s="19"/>
+      <c r="CU4" s="19"/>
+      <c r="CV4" s="19"/>
+      <c r="CW4" s="19"/>
+      <c r="CX4" s="19"/>
+      <c r="CY4" s="19"/>
+      <c r="CZ4" s="19"/>
     </row>
     <row r="5" spans="2:106" ht="14.25">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14" t="s">
+      <c r="H5" s="19"/>
+      <c r="I5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="18" t="s">
+      <c r="J5" s="19"/>
+      <c r="K5" s="14" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14" t="s">
+      <c r="N5" s="19"/>
+      <c r="O5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="18" t="s">
+      <c r="P5" s="19"/>
+      <c r="Q5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="18" t="s">
+      <c r="R5" s="14" t="s">
         <v>24</v>
       </c>
       <c r="T5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="14" t="s">
+      <c r="U5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14" t="s">
+      <c r="V5" s="19"/>
+      <c r="W5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="18" t="s">
+      <c r="X5" s="19"/>
+      <c r="Y5" s="14" t="s">
         <v>22</v>
       </c>
       <c r="Z5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="AA5" s="14" t="s">
+      <c r="AA5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="AB5" s="14"/>
-      <c r="AC5" s="14" t="s">
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="AD5" s="14"/>
-      <c r="AE5" s="18" t="s">
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AF5" s="18" t="s">
+      <c r="AF5" s="14" t="s">
         <v>24</v>
       </c>
       <c r="AH5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AI5" s="14" t="s">
+      <c r="AI5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="AJ5" s="14"/>
-      <c r="AK5" s="14" t="s">
+      <c r="AJ5" s="19"/>
+      <c r="AK5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="AL5" s="14"/>
-      <c r="AM5" s="18" t="s">
+      <c r="AL5" s="19"/>
+      <c r="AM5" s="14" t="s">
         <v>22</v>
       </c>
       <c r="AN5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="AO5" s="14" t="s">
+      <c r="AO5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="AP5" s="14"/>
-      <c r="AQ5" s="14" t="s">
+      <c r="AP5" s="19"/>
+      <c r="AQ5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="AR5" s="14"/>
-      <c r="AS5" s="18" t="s">
+      <c r="AR5" s="19"/>
+      <c r="AS5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AT5" s="18" t="s">
+      <c r="AT5" s="14" t="s">
         <v>24</v>
       </c>
       <c r="AV5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AW5" s="14" t="s">
+      <c r="AW5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="AX5" s="14"/>
-      <c r="AY5" s="14" t="s">
+      <c r="AX5" s="19"/>
+      <c r="AY5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="AZ5" s="14"/>
-      <c r="BA5" s="18" t="s">
+      <c r="AZ5" s="19"/>
+      <c r="BA5" s="14" t="s">
         <v>22</v>
       </c>
       <c r="BB5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="BC5" s="14" t="s">
+      <c r="BC5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="BD5" s="14"/>
-      <c r="BE5" s="14" t="s">
+      <c r="BD5" s="19"/>
+      <c r="BE5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="BF5" s="14"/>
-      <c r="BG5" s="18" t="s">
+      <c r="BF5" s="19"/>
+      <c r="BG5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="BH5" s="18" t="s">
+      <c r="BH5" s="14" t="s">
         <v>24</v>
       </c>
       <c r="BJ5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="BK5" s="14" t="s">
+      <c r="BK5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="BL5" s="14"/>
-      <c r="BM5" s="14" t="s">
+      <c r="BL5" s="19"/>
+      <c r="BM5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="BN5" s="14"/>
-      <c r="BO5" s="18" t="s">
+      <c r="BN5" s="19"/>
+      <c r="BO5" s="14" t="s">
         <v>22</v>
       </c>
       <c r="BP5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="BQ5" s="14" t="s">
+      <c r="BQ5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="BR5" s="14"/>
-      <c r="BS5" s="14" t="s">
+      <c r="BR5" s="19"/>
+      <c r="BS5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="BT5" s="14"/>
-      <c r="BU5" s="18" t="s">
+      <c r="BT5" s="19"/>
+      <c r="BU5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="BV5" s="18" t="s">
+      <c r="BV5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="BW5" s="18" t="s">
+      <c r="BW5" s="14" t="s">
         <v>25</v>
       </c>
       <c r="BY5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="BZ5" s="14" t="s">
+      <c r="BZ5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="CA5" s="14"/>
-      <c r="CB5" s="14" t="s">
+      <c r="CA5" s="19"/>
+      <c r="CB5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="CC5" s="14"/>
-      <c r="CD5" s="18" t="s">
+      <c r="CC5" s="19"/>
+      <c r="CD5" s="14" t="s">
         <v>22</v>
       </c>
       <c r="CE5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="CF5" s="14" t="s">
+      <c r="CF5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="CG5" s="14"/>
-      <c r="CH5" s="14" t="s">
+      <c r="CG5" s="19"/>
+      <c r="CH5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="CI5" s="14"/>
-      <c r="CJ5" s="18" t="s">
+      <c r="CI5" s="19"/>
+      <c r="CJ5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="CK5" s="18" t="s">
+      <c r="CK5" s="14" t="s">
         <v>24</v>
       </c>
       <c r="CM5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="CN5" s="14" t="s">
+      <c r="CN5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="CO5" s="14"/>
-      <c r="CP5" s="14" t="s">
+      <c r="CO5" s="19"/>
+      <c r="CP5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="CQ5" s="14"/>
-      <c r="CR5" s="18" t="s">
+      <c r="CQ5" s="19"/>
+      <c r="CR5" s="14" t="s">
         <v>22</v>
       </c>
       <c r="CS5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="CT5" s="14" t="s">
+      <c r="CT5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="CU5" s="14"/>
-      <c r="CV5" s="14" t="s">
+      <c r="CU5" s="19"/>
+      <c r="CV5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="CW5" s="14"/>
-      <c r="CX5" s="18" t="s">
+      <c r="CW5" s="19"/>
+      <c r="CX5" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="CY5" s="18" t="s">
+      <c r="CY5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="CZ5" s="18" t="s">
+      <c r="CZ5" s="14" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:106" ht="14.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
       <c r="F6" s="15"/>
       <c r="G6" s="4" t="s">
         <v>26</v>
@@ -1597,8 +1597,12 @@
       <c r="AY7" s="9">
         <v>45040</v>
       </c>
-      <c r="AZ7" s="9"/>
-      <c r="BA7" s="10"/>
+      <c r="AZ7" s="9">
+        <v>45040</v>
+      </c>
+      <c r="BA7" s="10">
+        <v>1</v>
+      </c>
       <c r="BB7" s="5" t="s">
         <v>40</v>
       </c>
@@ -1609,10 +1613,18 @@
         <f>BC7</f>
         <v>45041</v>
       </c>
-      <c r="BE7" s="9"/>
-      <c r="BF7" s="9"/>
-      <c r="BG7" s="10"/>
-      <c r="BH7" s="10"/>
+      <c r="BE7" s="9">
+        <v>45040</v>
+      </c>
+      <c r="BF7" s="9">
+        <v>45040</v>
+      </c>
+      <c r="BG7" s="10">
+        <v>1</v>
+      </c>
+      <c r="BH7" s="10">
+        <v>0.02</v>
+      </c>
       <c r="BJ7" s="13" t="str">
         <f>AV7</f>
         <v>張　卓群、趙　博</v>
@@ -1625,9 +1637,15 @@
         <f>BK7</f>
         <v>45042</v>
       </c>
-      <c r="BM7" s="9"/>
-      <c r="BN7" s="9"/>
-      <c r="BO7" s="10"/>
+      <c r="BM7" s="9">
+        <v>45041</v>
+      </c>
+      <c r="BN7" s="9">
+        <v>45041</v>
+      </c>
+      <c r="BO7" s="10">
+        <v>1</v>
+      </c>
       <c r="BP7" s="5" t="s">
         <v>40</v>
       </c>
@@ -1638,79 +1656,85 @@
         <f>BQ7</f>
         <v>45042</v>
       </c>
-      <c r="BS7" s="9"/>
-      <c r="BT7" s="9"/>
-      <c r="BU7" s="10"/>
+      <c r="BS7" s="9">
+        <v>45042</v>
+      </c>
+      <c r="BT7" s="9">
+        <v>45042</v>
+      </c>
+      <c r="BU7" s="10">
+        <v>1</v>
+      </c>
       <c r="BV7" s="10"/>
       <c r="BW7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="BY7" s="19" t="str">
+      <c r="BY7" s="26" t="str">
         <f>E7</f>
         <v>チーム1</v>
       </c>
-      <c r="BZ7" s="23">
+      <c r="BZ7" s="20">
         <f>BQ7+1</f>
         <v>45043</v>
       </c>
-      <c r="CA7" s="23">
+      <c r="CA7" s="20">
         <f>BZ7</f>
         <v>45043</v>
       </c>
-      <c r="CB7" s="23"/>
-      <c r="CC7" s="23"/>
-      <c r="CD7" s="26"/>
-      <c r="CE7" s="29" t="s">
+      <c r="CB7" s="20"/>
+      <c r="CC7" s="20"/>
+      <c r="CD7" s="23"/>
+      <c r="CE7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="CF7" s="22">
+      <c r="CF7" s="17">
         <f>CA7</f>
         <v>45043</v>
       </c>
-      <c r="CG7" s="22">
+      <c r="CG7" s="17">
         <f>CF7</f>
         <v>45043</v>
       </c>
-      <c r="CH7" s="22"/>
-      <c r="CI7" s="22"/>
-      <c r="CJ7" s="30"/>
-      <c r="CK7" s="26"/>
-      <c r="CM7" s="19" t="s">
+      <c r="CH7" s="17"/>
+      <c r="CI7" s="17"/>
+      <c r="CJ7" s="16"/>
+      <c r="CK7" s="23"/>
+      <c r="CM7" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="CN7" s="23">
+      <c r="CN7" s="20">
         <v>45044</v>
       </c>
-      <c r="CO7" s="23">
+      <c r="CO7" s="20">
         <f>CN7</f>
         <v>45044</v>
       </c>
-      <c r="CP7" s="23"/>
-      <c r="CQ7" s="23"/>
-      <c r="CR7" s="26"/>
-      <c r="CS7" s="29" t="s">
+      <c r="CP7" s="20"/>
+      <c r="CQ7" s="20"/>
+      <c r="CR7" s="23"/>
+      <c r="CS7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="CT7" s="22">
+      <c r="CT7" s="17">
         <f>CO7</f>
         <v>45044</v>
       </c>
-      <c r="CU7" s="22">
+      <c r="CU7" s="17">
         <f>CT7</f>
         <v>45044</v>
       </c>
-      <c r="CV7" s="22"/>
-      <c r="CW7" s="22"/>
-      <c r="CX7" s="30"/>
-      <c r="CY7" s="30"/>
-      <c r="CZ7" s="30"/>
+      <c r="CV7" s="17"/>
+      <c r="CW7" s="17"/>
+      <c r="CX7" s="16"/>
+      <c r="CY7" s="16"/>
+      <c r="CZ7" s="16"/>
       <c r="DB7" s="11"/>
     </row>
     <row r="8" spans="2:106" ht="42" customHeight="1">
       <c r="B8" s="5">
         <v>2</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="30" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -1854,8 +1878,12 @@
       <c r="AY8" s="9">
         <v>45040</v>
       </c>
-      <c r="AZ8" s="9"/>
-      <c r="BA8" s="10"/>
+      <c r="AZ8" s="9">
+        <v>45040</v>
+      </c>
+      <c r="BA8" s="10">
+        <v>1</v>
+      </c>
       <c r="BB8" s="5" t="str">
         <f>AV9</f>
         <v>馬　広超、張　秋実、濱　遼太郎、張碩</v>
@@ -1867,10 +1895,18 @@
         <f t="shared" ref="BD8:BD9" si="5">BC8</f>
         <v>45041</v>
       </c>
-      <c r="BE8" s="9"/>
-      <c r="BF8" s="9"/>
-      <c r="BG8" s="10"/>
-      <c r="BH8" s="10"/>
+      <c r="BE8" s="9">
+        <v>45040</v>
+      </c>
+      <c r="BF8" s="9">
+        <v>45040</v>
+      </c>
+      <c r="BG8" s="10">
+        <v>1</v>
+      </c>
+      <c r="BH8" s="10">
+        <v>0.06</v>
+      </c>
       <c r="BJ8" s="13" t="str">
         <f t="shared" ref="BJ8:BJ9" si="6">AV8</f>
         <v>馬　広超、張　秋実、濱　遼太郎、張碩</v>
@@ -1883,9 +1919,15 @@
         <f t="shared" ref="BL8:BL9" si="8">BK8</f>
         <v>45042</v>
       </c>
-      <c r="BM8" s="9"/>
-      <c r="BN8" s="9"/>
-      <c r="BO8" s="10"/>
+      <c r="BM8" s="9">
+        <v>45041</v>
+      </c>
+      <c r="BN8" s="9">
+        <v>45041</v>
+      </c>
+      <c r="BO8" s="10">
+        <v>1</v>
+      </c>
       <c r="BP8" s="5" t="str">
         <f>BJ9</f>
         <v>馬　広超、張　秋実、濱　遼太郎、張碩</v>
@@ -1898,44 +1940,50 @@
         <f t="shared" ref="BR8:BR9" si="9">BQ8</f>
         <v>45042</v>
       </c>
-      <c r="BS8" s="9"/>
-      <c r="BT8" s="9"/>
-      <c r="BU8" s="10"/>
+      <c r="BS8" s="9">
+        <v>45042</v>
+      </c>
+      <c r="BT8" s="9">
+        <v>45042</v>
+      </c>
+      <c r="BU8" s="10">
+        <v>1</v>
+      </c>
       <c r="BV8" s="10"/>
       <c r="BW8" s="10"/>
-      <c r="BY8" s="20"/>
-      <c r="BZ8" s="24"/>
-      <c r="CA8" s="24"/>
-      <c r="CB8" s="24"/>
-      <c r="CC8" s="24"/>
-      <c r="CD8" s="27"/>
-      <c r="CE8" s="29"/>
-      <c r="CF8" s="22"/>
-      <c r="CG8" s="22"/>
-      <c r="CH8" s="22"/>
-      <c r="CI8" s="22"/>
-      <c r="CJ8" s="30"/>
-      <c r="CK8" s="27"/>
-      <c r="CM8" s="20"/>
-      <c r="CN8" s="24"/>
-      <c r="CO8" s="24"/>
-      <c r="CP8" s="24"/>
-      <c r="CQ8" s="24"/>
-      <c r="CR8" s="27"/>
-      <c r="CS8" s="29"/>
-      <c r="CT8" s="22"/>
-      <c r="CU8" s="22"/>
-      <c r="CV8" s="22"/>
-      <c r="CW8" s="22"/>
-      <c r="CX8" s="30"/>
-      <c r="CY8" s="30"/>
-      <c r="CZ8" s="30"/>
+      <c r="BY8" s="27"/>
+      <c r="BZ8" s="21"/>
+      <c r="CA8" s="21"/>
+      <c r="CB8" s="21"/>
+      <c r="CC8" s="21"/>
+      <c r="CD8" s="24"/>
+      <c r="CE8" s="18"/>
+      <c r="CF8" s="17"/>
+      <c r="CG8" s="17"/>
+      <c r="CH8" s="17"/>
+      <c r="CI8" s="17"/>
+      <c r="CJ8" s="16"/>
+      <c r="CK8" s="24"/>
+      <c r="CM8" s="27"/>
+      <c r="CN8" s="21"/>
+      <c r="CO8" s="21"/>
+      <c r="CP8" s="21"/>
+      <c r="CQ8" s="21"/>
+      <c r="CR8" s="24"/>
+      <c r="CS8" s="18"/>
+      <c r="CT8" s="17"/>
+      <c r="CU8" s="17"/>
+      <c r="CV8" s="17"/>
+      <c r="CW8" s="17"/>
+      <c r="CX8" s="16"/>
+      <c r="CY8" s="16"/>
+      <c r="CZ8" s="16"/>
     </row>
     <row r="9" spans="2:106" ht="48.75" customHeight="1">
       <c r="B9" s="5">
         <v>3</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="7" t="s">
         <v>31</v>
       </c>
@@ -2077,8 +2125,12 @@
       <c r="AY9" s="9">
         <v>45040</v>
       </c>
-      <c r="AZ9" s="9"/>
-      <c r="BA9" s="10"/>
+      <c r="AZ9" s="9">
+        <v>45040</v>
+      </c>
+      <c r="BA9" s="10">
+        <v>1</v>
+      </c>
       <c r="BB9" s="5" t="s">
         <v>44</v>
       </c>
@@ -2089,10 +2141,18 @@
         <f t="shared" si="5"/>
         <v>45041</v>
       </c>
-      <c r="BE9" s="9"/>
-      <c r="BF9" s="9"/>
-      <c r="BG9" s="10"/>
-      <c r="BH9" s="10"/>
+      <c r="BE9" s="9">
+        <v>45040</v>
+      </c>
+      <c r="BF9" s="9">
+        <v>45040</v>
+      </c>
+      <c r="BG9" s="10">
+        <v>1</v>
+      </c>
+      <c r="BH9" s="10">
+        <v>0.05</v>
+      </c>
       <c r="BJ9" s="13" t="str">
         <f t="shared" si="6"/>
         <v>馬　広超、張　秋実、濱　遼太郎、張碩</v>
@@ -2105,9 +2165,15 @@
         <f t="shared" si="8"/>
         <v>45042</v>
       </c>
-      <c r="BM9" s="9"/>
-      <c r="BN9" s="9"/>
-      <c r="BO9" s="10"/>
+      <c r="BM9" s="9">
+        <v>45041</v>
+      </c>
+      <c r="BN9" s="9">
+        <v>45041</v>
+      </c>
+      <c r="BO9" s="10">
+        <v>1</v>
+      </c>
       <c r="BP9" s="5" t="s">
         <v>44</v>
       </c>
@@ -2118,104 +2184,71 @@
         <f t="shared" si="9"/>
         <v>45042</v>
       </c>
-      <c r="BS9" s="9"/>
-      <c r="BT9" s="9"/>
-      <c r="BU9" s="10"/>
+      <c r="BS9" s="9">
+        <v>45042</v>
+      </c>
+      <c r="BT9" s="9">
+        <v>45042</v>
+      </c>
+      <c r="BU9" s="10">
+        <v>1</v>
+      </c>
       <c r="BV9" s="10"/>
       <c r="BW9" s="10"/>
-      <c r="BY9" s="21"/>
-      <c r="BZ9" s="25"/>
-      <c r="CA9" s="25"/>
-      <c r="CB9" s="25"/>
-      <c r="CC9" s="25"/>
-      <c r="CD9" s="28"/>
-      <c r="CE9" s="29"/>
-      <c r="CF9" s="22"/>
-      <c r="CG9" s="22"/>
-      <c r="CH9" s="22"/>
-      <c r="CI9" s="22"/>
-      <c r="CJ9" s="30"/>
-      <c r="CK9" s="28"/>
-      <c r="CM9" s="21"/>
-      <c r="CN9" s="25"/>
-      <c r="CO9" s="25"/>
-      <c r="CP9" s="25"/>
-      <c r="CQ9" s="25"/>
-      <c r="CR9" s="28"/>
-      <c r="CS9" s="29"/>
-      <c r="CT9" s="22"/>
-      <c r="CU9" s="22"/>
-      <c r="CV9" s="22"/>
-      <c r="CW9" s="22"/>
-      <c r="CX9" s="30"/>
-      <c r="CY9" s="30"/>
-      <c r="CZ9" s="30"/>
+      <c r="BY9" s="28"/>
+      <c r="BZ9" s="22"/>
+      <c r="CA9" s="22"/>
+      <c r="CB9" s="22"/>
+      <c r="CC9" s="22"/>
+      <c r="CD9" s="25"/>
+      <c r="CE9" s="18"/>
+      <c r="CF9" s="17"/>
+      <c r="CG9" s="17"/>
+      <c r="CH9" s="17"/>
+      <c r="CI9" s="17"/>
+      <c r="CJ9" s="16"/>
+      <c r="CK9" s="25"/>
+      <c r="CM9" s="28"/>
+      <c r="CN9" s="22"/>
+      <c r="CO9" s="22"/>
+      <c r="CP9" s="22"/>
+      <c r="CQ9" s="22"/>
+      <c r="CR9" s="25"/>
+      <c r="CS9" s="18"/>
+      <c r="CT9" s="17"/>
+      <c r="CU9" s="17"/>
+      <c r="CV9" s="17"/>
+      <c r="CW9" s="17"/>
+      <c r="CX9" s="16"/>
+      <c r="CY9" s="16"/>
+      <c r="CZ9" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="111">
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CY7:CY9"/>
-    <mergeCell ref="CZ5:CZ6"/>
-    <mergeCell ref="CZ7:CZ9"/>
-    <mergeCell ref="CV7:CV9"/>
-    <mergeCell ref="CW7:CW9"/>
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CX7:CX9"/>
-    <mergeCell ref="CS7:CS9"/>
-    <mergeCell ref="CT7:CT9"/>
-    <mergeCell ref="CU7:CU9"/>
-    <mergeCell ref="CT5:CU5"/>
-    <mergeCell ref="CV5:CW5"/>
-    <mergeCell ref="CS5:CS6"/>
-    <mergeCell ref="CP7:CP9"/>
-    <mergeCell ref="CQ7:CQ9"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CR7:CR9"/>
-    <mergeCell ref="CM7:CM9"/>
-    <mergeCell ref="CN7:CN9"/>
-    <mergeCell ref="CO7:CO9"/>
-    <mergeCell ref="CI7:CI9"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CJ7:CJ9"/>
-    <mergeCell ref="CK5:CK6"/>
-    <mergeCell ref="CK7:CK9"/>
-    <mergeCell ref="CN5:CO5"/>
-    <mergeCell ref="CP5:CQ5"/>
-    <mergeCell ref="CM5:CM6"/>
-    <mergeCell ref="CF7:CF9"/>
-    <mergeCell ref="CG7:CG9"/>
-    <mergeCell ref="CH7:CH9"/>
-    <mergeCell ref="CC7:CC9"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="CD7:CD9"/>
-    <mergeCell ref="CE5:CE6"/>
-    <mergeCell ref="CE7:CE9"/>
-    <mergeCell ref="BZ7:BZ9"/>
-    <mergeCell ref="CA7:CA9"/>
-    <mergeCell ref="CB7:CB9"/>
-    <mergeCell ref="CB5:CC5"/>
-    <mergeCell ref="CF5:CG5"/>
-    <mergeCell ref="CH5:CI5"/>
-    <mergeCell ref="BY5:BY6"/>
-    <mergeCell ref="BY7:BY9"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BP5:BP6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BW5:BW6"/>
+    <mergeCell ref="CE4:CK4"/>
+    <mergeCell ref="CM4:CR4"/>
+    <mergeCell ref="CS4:CZ4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BM5:BN5"/>
+    <mergeCell ref="BQ5:BR5"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:R4"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="C8:C9"/>
@@ -2240,30 +2273,69 @@
     <mergeCell ref="T5:T6"/>
     <mergeCell ref="Y5:Y6"/>
     <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="CE4:CK4"/>
-    <mergeCell ref="CM4:CR4"/>
-    <mergeCell ref="CS4:CZ4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="BM5:BN5"/>
-    <mergeCell ref="BQ5:BR5"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:R4"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BW5:BW6"/>
+    <mergeCell ref="BY5:BY6"/>
+    <mergeCell ref="BY7:BY9"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="CF7:CF9"/>
+    <mergeCell ref="CG7:CG9"/>
+    <mergeCell ref="CH7:CH9"/>
+    <mergeCell ref="CC7:CC9"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="CD7:CD9"/>
+    <mergeCell ref="CE5:CE6"/>
+    <mergeCell ref="CE7:CE9"/>
+    <mergeCell ref="BZ7:BZ9"/>
+    <mergeCell ref="CA7:CA9"/>
+    <mergeCell ref="CB7:CB9"/>
+    <mergeCell ref="CB5:CC5"/>
+    <mergeCell ref="CF5:CG5"/>
+    <mergeCell ref="CH5:CI5"/>
+    <mergeCell ref="CP7:CP9"/>
+    <mergeCell ref="CQ7:CQ9"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CR7:CR9"/>
+    <mergeCell ref="CM7:CM9"/>
+    <mergeCell ref="CN7:CN9"/>
+    <mergeCell ref="CO7:CO9"/>
+    <mergeCell ref="CI7:CI9"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CJ7:CJ9"/>
+    <mergeCell ref="CK5:CK6"/>
+    <mergeCell ref="CK7:CK9"/>
+    <mergeCell ref="CN5:CO5"/>
+    <mergeCell ref="CP5:CQ5"/>
+    <mergeCell ref="CM5:CM6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CY7:CY9"/>
+    <mergeCell ref="CZ5:CZ6"/>
+    <mergeCell ref="CZ7:CZ9"/>
+    <mergeCell ref="CV7:CV9"/>
+    <mergeCell ref="CW7:CW9"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CX7:CX9"/>
+    <mergeCell ref="CS7:CS9"/>
+    <mergeCell ref="CT7:CT9"/>
+    <mergeCell ref="CU7:CU9"/>
+    <mergeCell ref="CT5:CU5"/>
+    <mergeCell ref="CV5:CW5"/>
+    <mergeCell ref="CS5:CS6"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="F7:K9">

--- a/スケジュール（2023-04）.xlsx
+++ b/スケジュール（2023-04）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kochy\Desktop\2023-04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E57CEA-0C13-4D90-AFC2-411C8DDE02ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAFD229-B59B-4F4A-A885-B9D2DEAC531C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="44">
   <si>
     <t>勤怠管理システムWBS</t>
   </si>
@@ -125,9 +125,6 @@
   </si>
   <si>
     <t>ログイン画面</t>
-  </si>
-  <si>
-    <t>`</t>
   </si>
   <si>
     <t>基本情報登録</t>
@@ -382,55 +379,55 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -821,7 +818,7 @@
       <pane xSplit="5" ySplit="6" topLeftCell="BZ7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="CP24" sqref="CP24"/>
+      <selection pane="bottomRight" activeCell="CQ23" sqref="CQ23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
@@ -886,362 +883,362 @@
       <c r="E4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="T4" s="19" t="s">
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="T4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19" t="s">
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AH4" s="19" t="s">
+      <c r="AA4" s="14"/>
+      <c r="AB4" s="14"/>
+      <c r="AC4" s="14"/>
+      <c r="AD4" s="14"/>
+      <c r="AE4" s="14"/>
+      <c r="AF4" s="14"/>
+      <c r="AH4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="19"/>
-      <c r="AM4" s="19"/>
-      <c r="AN4" s="19" t="s">
+      <c r="AI4" s="14"/>
+      <c r="AJ4" s="14"/>
+      <c r="AK4" s="14"/>
+      <c r="AL4" s="14"/>
+      <c r="AM4" s="14"/>
+      <c r="AN4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="AO4" s="19"/>
-      <c r="AP4" s="19"/>
-      <c r="AQ4" s="19"/>
-      <c r="AR4" s="19"/>
-      <c r="AS4" s="19"/>
-      <c r="AT4" s="19"/>
-      <c r="AV4" s="19" t="s">
+      <c r="AO4" s="14"/>
+      <c r="AP4" s="14"/>
+      <c r="AQ4" s="14"/>
+      <c r="AR4" s="14"/>
+      <c r="AS4" s="14"/>
+      <c r="AT4" s="14"/>
+      <c r="AV4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="AW4" s="19"/>
-      <c r="AX4" s="19"/>
-      <c r="AY4" s="19"/>
-      <c r="AZ4" s="19"/>
-      <c r="BA4" s="19"/>
-      <c r="BB4" s="19" t="s">
+      <c r="AW4" s="14"/>
+      <c r="AX4" s="14"/>
+      <c r="AY4" s="14"/>
+      <c r="AZ4" s="14"/>
+      <c r="BA4" s="14"/>
+      <c r="BB4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="BC4" s="19"/>
-      <c r="BD4" s="19"/>
-      <c r="BE4" s="19"/>
-      <c r="BF4" s="19"/>
-      <c r="BG4" s="19"/>
-      <c r="BH4" s="19"/>
-      <c r="BJ4" s="19" t="s">
+      <c r="BC4" s="14"/>
+      <c r="BD4" s="14"/>
+      <c r="BE4" s="14"/>
+      <c r="BF4" s="14"/>
+      <c r="BG4" s="14"/>
+      <c r="BH4" s="14"/>
+      <c r="BJ4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="BK4" s="19"/>
-      <c r="BL4" s="19"/>
-      <c r="BM4" s="19"/>
-      <c r="BN4" s="19"/>
-      <c r="BO4" s="19"/>
-      <c r="BP4" s="19" t="s">
+      <c r="BK4" s="14"/>
+      <c r="BL4" s="14"/>
+      <c r="BM4" s="14"/>
+      <c r="BN4" s="14"/>
+      <c r="BO4" s="14"/>
+      <c r="BP4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="BQ4" s="19"/>
-      <c r="BR4" s="19"/>
-      <c r="BS4" s="19"/>
-      <c r="BT4" s="19"/>
-      <c r="BU4" s="19"/>
-      <c r="BV4" s="19"/>
-      <c r="BW4" s="19"/>
-      <c r="BY4" s="19" t="s">
+      <c r="BQ4" s="14"/>
+      <c r="BR4" s="14"/>
+      <c r="BS4" s="14"/>
+      <c r="BT4" s="14"/>
+      <c r="BU4" s="14"/>
+      <c r="BV4" s="14"/>
+      <c r="BW4" s="14"/>
+      <c r="BY4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="BZ4" s="19"/>
-      <c r="CA4" s="19"/>
-      <c r="CB4" s="19"/>
-      <c r="CC4" s="19"/>
-      <c r="CD4" s="19"/>
-      <c r="CE4" s="19" t="s">
+      <c r="BZ4" s="14"/>
+      <c r="CA4" s="14"/>
+      <c r="CB4" s="14"/>
+      <c r="CC4" s="14"/>
+      <c r="CD4" s="14"/>
+      <c r="CE4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="CF4" s="19"/>
-      <c r="CG4" s="19"/>
-      <c r="CH4" s="19"/>
-      <c r="CI4" s="19"/>
-      <c r="CJ4" s="19"/>
-      <c r="CK4" s="19"/>
-      <c r="CM4" s="19" t="s">
+      <c r="CF4" s="14"/>
+      <c r="CG4" s="14"/>
+      <c r="CH4" s="14"/>
+      <c r="CI4" s="14"/>
+      <c r="CJ4" s="14"/>
+      <c r="CK4" s="14"/>
+      <c r="CM4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="CN4" s="19"/>
-      <c r="CO4" s="19"/>
-      <c r="CP4" s="19"/>
-      <c r="CQ4" s="19"/>
-      <c r="CR4" s="19"/>
-      <c r="CS4" s="19" t="s">
+      <c r="CN4" s="14"/>
+      <c r="CO4" s="14"/>
+      <c r="CP4" s="14"/>
+      <c r="CQ4" s="14"/>
+      <c r="CR4" s="14"/>
+      <c r="CS4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="CT4" s="19"/>
-      <c r="CU4" s="19"/>
-      <c r="CV4" s="19"/>
-      <c r="CW4" s="19"/>
-      <c r="CX4" s="19"/>
-      <c r="CY4" s="19"/>
-      <c r="CZ4" s="19"/>
+      <c r="CT4" s="14"/>
+      <c r="CU4" s="14"/>
+      <c r="CV4" s="14"/>
+      <c r="CW4" s="14"/>
+      <c r="CX4" s="14"/>
+      <c r="CY4" s="14"/>
+      <c r="CZ4" s="14"/>
     </row>
     <row r="5" spans="2:106" ht="14.25">
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19" t="s">
+      <c r="H5" s="14"/>
+      <c r="I5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="19"/>
-      <c r="K5" s="14" t="s">
+      <c r="J5" s="14"/>
+      <c r="K5" s="18" t="s">
         <v>22</v>
       </c>
       <c r="L5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19" t="s">
+      <c r="N5" s="14"/>
+      <c r="O5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="14" t="s">
+      <c r="P5" s="14"/>
+      <c r="Q5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="14" t="s">
+      <c r="R5" s="18" t="s">
         <v>24</v>
       </c>
       <c r="T5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="19" t="s">
+      <c r="U5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19" t="s">
+      <c r="V5" s="14"/>
+      <c r="W5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="14" t="s">
+      <c r="X5" s="14"/>
+      <c r="Y5" s="18" t="s">
         <v>22</v>
       </c>
       <c r="Z5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="AA5" s="19" t="s">
+      <c r="AA5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19" t="s">
+      <c r="AB5" s="14"/>
+      <c r="AC5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="14" t="s">
+      <c r="AD5" s="14"/>
+      <c r="AE5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="AF5" s="14" t="s">
+      <c r="AF5" s="18" t="s">
         <v>24</v>
       </c>
       <c r="AH5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AI5" s="19" t="s">
+      <c r="AI5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="19" t="s">
+      <c r="AJ5" s="14"/>
+      <c r="AK5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AL5" s="19"/>
-      <c r="AM5" s="14" t="s">
+      <c r="AL5" s="14"/>
+      <c r="AM5" s="18" t="s">
         <v>22</v>
       </c>
       <c r="AN5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="AO5" s="19" t="s">
+      <c r="AO5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="AP5" s="19"/>
-      <c r="AQ5" s="19" t="s">
+      <c r="AP5" s="14"/>
+      <c r="AQ5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AR5" s="19"/>
-      <c r="AS5" s="14" t="s">
+      <c r="AR5" s="14"/>
+      <c r="AS5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="AT5" s="14" t="s">
+      <c r="AT5" s="18" t="s">
         <v>24</v>
       </c>
       <c r="AV5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AW5" s="19" t="s">
+      <c r="AW5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="AX5" s="19"/>
-      <c r="AY5" s="19" t="s">
+      <c r="AX5" s="14"/>
+      <c r="AY5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="AZ5" s="19"/>
-      <c r="BA5" s="14" t="s">
+      <c r="AZ5" s="14"/>
+      <c r="BA5" s="18" t="s">
         <v>22</v>
       </c>
       <c r="BB5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="BC5" s="19" t="s">
+      <c r="BC5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="BD5" s="19"/>
-      <c r="BE5" s="19" t="s">
+      <c r="BD5" s="14"/>
+      <c r="BE5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="BF5" s="19"/>
-      <c r="BG5" s="14" t="s">
+      <c r="BF5" s="14"/>
+      <c r="BG5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="BH5" s="14" t="s">
+      <c r="BH5" s="18" t="s">
         <v>24</v>
       </c>
       <c r="BJ5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="BK5" s="19" t="s">
+      <c r="BK5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="BL5" s="19"/>
-      <c r="BM5" s="19" t="s">
+      <c r="BL5" s="14"/>
+      <c r="BM5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="BN5" s="19"/>
-      <c r="BO5" s="14" t="s">
+      <c r="BN5" s="14"/>
+      <c r="BO5" s="18" t="s">
         <v>22</v>
       </c>
       <c r="BP5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="BQ5" s="19" t="s">
+      <c r="BQ5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="BR5" s="19"/>
-      <c r="BS5" s="19" t="s">
+      <c r="BR5" s="14"/>
+      <c r="BS5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="BT5" s="19"/>
-      <c r="BU5" s="14" t="s">
+      <c r="BT5" s="14"/>
+      <c r="BU5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="BV5" s="14" t="s">
+      <c r="BV5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="BW5" s="14" t="s">
+      <c r="BW5" s="18" t="s">
         <v>25</v>
       </c>
       <c r="BY5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="BZ5" s="19" t="s">
+      <c r="BZ5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="CA5" s="19"/>
-      <c r="CB5" s="19" t="s">
+      <c r="CA5" s="14"/>
+      <c r="CB5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="CC5" s="19"/>
-      <c r="CD5" s="14" t="s">
+      <c r="CC5" s="14"/>
+      <c r="CD5" s="18" t="s">
         <v>22</v>
       </c>
       <c r="CE5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="CF5" s="19" t="s">
+      <c r="CF5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="CG5" s="19"/>
-      <c r="CH5" s="19" t="s">
+      <c r="CG5" s="14"/>
+      <c r="CH5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="CI5" s="19"/>
-      <c r="CJ5" s="14" t="s">
+      <c r="CI5" s="14"/>
+      <c r="CJ5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="CK5" s="14" t="s">
+      <c r="CK5" s="18" t="s">
         <v>24</v>
       </c>
       <c r="CM5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="CN5" s="19" t="s">
+      <c r="CN5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="CO5" s="19"/>
-      <c r="CP5" s="19" t="s">
+      <c r="CO5" s="14"/>
+      <c r="CP5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="CQ5" s="19"/>
-      <c r="CR5" s="14" t="s">
+      <c r="CQ5" s="14"/>
+      <c r="CR5" s="18" t="s">
         <v>22</v>
       </c>
       <c r="CS5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="CT5" s="19" t="s">
+      <c r="CT5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="CU5" s="19"/>
-      <c r="CV5" s="19" t="s">
+      <c r="CU5" s="14"/>
+      <c r="CV5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="CW5" s="19"/>
-      <c r="CX5" s="14" t="s">
+      <c r="CW5" s="14"/>
+      <c r="CX5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="CY5" s="14" t="s">
+      <c r="CY5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="CZ5" s="14" t="s">
+      <c r="CZ5" s="18" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:106" ht="14.25">
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
       <c r="F6" s="15"/>
       <c r="G6" s="4" t="s">
         <v>26</v>
@@ -1463,7 +1460,7 @@
         <v>チーム1</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="9">
         <v>45019</v>
@@ -1481,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="9">
         <v>45021</v>
@@ -1502,7 +1499,7 @@
         <v>0.04</v>
       </c>
       <c r="T7" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U7" s="9">
         <v>45022</v>
@@ -1520,7 +1517,7 @@
         <v>1</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AA7" s="9">
         <v>45026</v>
@@ -1561,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="AN7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AO7" s="9">
         <v>45040</v>
@@ -1604,7 +1601,7 @@
         <v>1</v>
       </c>
       <c r="BB7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BC7" s="9">
         <v>45041</v>
@@ -1647,7 +1644,7 @@
         <v>1</v>
       </c>
       <c r="BP7" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BQ7" s="9">
         <v>45042</v>
@@ -1665,86 +1662,118 @@
       <c r="BU7" s="10">
         <v>1</v>
       </c>
-      <c r="BV7" s="10"/>
-      <c r="BW7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="BY7" s="26" t="str">
+      <c r="BV7" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BW7" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="BY7" s="19" t="str">
         <f>E7</f>
         <v>チーム1</v>
       </c>
-      <c r="BZ7" s="20">
+      <c r="BZ7" s="23">
         <f>BQ7+1</f>
         <v>45043</v>
       </c>
-      <c r="CA7" s="20">
+      <c r="CA7" s="23">
         <f>BZ7</f>
         <v>45043</v>
       </c>
-      <c r="CB7" s="20"/>
-      <c r="CC7" s="20"/>
-      <c r="CD7" s="23"/>
-      <c r="CE7" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="CF7" s="17">
+      <c r="CB7" s="23">
+        <v>45042</v>
+      </c>
+      <c r="CC7" s="23">
+        <v>45042</v>
+      </c>
+      <c r="CD7" s="26">
+        <v>1</v>
+      </c>
+      <c r="CE7" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="CF7" s="22">
         <f>CA7</f>
         <v>45043</v>
       </c>
-      <c r="CG7" s="17">
+      <c r="CG7" s="22">
         <f>CF7</f>
         <v>45043</v>
       </c>
-      <c r="CH7" s="17"/>
-      <c r="CI7" s="17"/>
-      <c r="CJ7" s="16"/>
-      <c r="CK7" s="23"/>
-      <c r="CM7" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="CN7" s="20">
+      <c r="CH7" s="22">
+        <v>45042</v>
+      </c>
+      <c r="CI7" s="22">
+        <v>45042</v>
+      </c>
+      <c r="CJ7" s="30">
+        <v>1</v>
+      </c>
+      <c r="CK7" s="26">
+        <v>0.05</v>
+      </c>
+      <c r="CM7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="CN7" s="23">
         <v>45044</v>
       </c>
-      <c r="CO7" s="20">
+      <c r="CO7" s="23">
         <f>CN7</f>
         <v>45044</v>
       </c>
-      <c r="CP7" s="20"/>
-      <c r="CQ7" s="20"/>
-      <c r="CR7" s="23"/>
-      <c r="CS7" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="CT7" s="17">
+      <c r="CP7" s="23">
+        <v>45043</v>
+      </c>
+      <c r="CQ7" s="23">
+        <v>45043</v>
+      </c>
+      <c r="CR7" s="26">
+        <v>1</v>
+      </c>
+      <c r="CS7" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="CT7" s="22">
         <f>CO7</f>
         <v>45044</v>
       </c>
-      <c r="CU7" s="17">
+      <c r="CU7" s="22">
         <f>CT7</f>
         <v>45044</v>
       </c>
-      <c r="CV7" s="17"/>
-      <c r="CW7" s="17"/>
-      <c r="CX7" s="16"/>
-      <c r="CY7" s="16"/>
-      <c r="CZ7" s="16"/>
+      <c r="CV7" s="22">
+        <v>45044</v>
+      </c>
+      <c r="CW7" s="22">
+        <v>45044</v>
+      </c>
+      <c r="CX7" s="30">
+        <v>1</v>
+      </c>
+      <c r="CY7" s="30">
+        <v>0.02</v>
+      </c>
+      <c r="CZ7" s="30">
+        <v>0.02</v>
+      </c>
       <c r="DB7" s="11"/>
     </row>
     <row r="8" spans="2:106" ht="42" customHeight="1">
       <c r="B8" s="5">
         <v>2</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="E8" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" s="9">
         <v>45019</v>
@@ -1762,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M8" s="9">
         <v>45021</v>
@@ -1783,7 +1812,7 @@
         <v>0.11</v>
       </c>
       <c r="T8" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U8" s="9">
         <v>45022</v>
@@ -1801,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA8" s="9">
         <v>45026</v>
@@ -1865,7 +1894,7 @@
         <v>0.06</v>
       </c>
       <c r="AV8" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AW8" s="9">
         <f t="shared" ref="AW8:AW9" si="3">AP8+1</f>
@@ -1949,49 +1978,53 @@
       <c r="BU8" s="10">
         <v>1</v>
       </c>
-      <c r="BV8" s="10"/>
-      <c r="BW8" s="10"/>
-      <c r="BY8" s="27"/>
-      <c r="BZ8" s="21"/>
-      <c r="CA8" s="21"/>
-      <c r="CB8" s="21"/>
-      <c r="CC8" s="21"/>
-      <c r="CD8" s="24"/>
-      <c r="CE8" s="18"/>
-      <c r="CF8" s="17"/>
-      <c r="CG8" s="17"/>
-      <c r="CH8" s="17"/>
-      <c r="CI8" s="17"/>
-      <c r="CJ8" s="16"/>
-      <c r="CK8" s="24"/>
-      <c r="CM8" s="27"/>
-      <c r="CN8" s="21"/>
-      <c r="CO8" s="21"/>
-      <c r="CP8" s="21"/>
-      <c r="CQ8" s="21"/>
-      <c r="CR8" s="24"/>
-      <c r="CS8" s="18"/>
-      <c r="CT8" s="17"/>
-      <c r="CU8" s="17"/>
-      <c r="CV8" s="17"/>
-      <c r="CW8" s="17"/>
-      <c r="CX8" s="16"/>
-      <c r="CY8" s="16"/>
-      <c r="CZ8" s="16"/>
+      <c r="BV8" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="BW8" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="BY8" s="20"/>
+      <c r="BZ8" s="24"/>
+      <c r="CA8" s="24"/>
+      <c r="CB8" s="24"/>
+      <c r="CC8" s="24"/>
+      <c r="CD8" s="27"/>
+      <c r="CE8" s="29"/>
+      <c r="CF8" s="22"/>
+      <c r="CG8" s="22"/>
+      <c r="CH8" s="22"/>
+      <c r="CI8" s="22"/>
+      <c r="CJ8" s="30"/>
+      <c r="CK8" s="27"/>
+      <c r="CM8" s="20"/>
+      <c r="CN8" s="24"/>
+      <c r="CO8" s="24"/>
+      <c r="CP8" s="24"/>
+      <c r="CQ8" s="24"/>
+      <c r="CR8" s="27"/>
+      <c r="CS8" s="29"/>
+      <c r="CT8" s="22"/>
+      <c r="CU8" s="22"/>
+      <c r="CV8" s="22"/>
+      <c r="CW8" s="22"/>
+      <c r="CX8" s="30"/>
+      <c r="CY8" s="30"/>
+      <c r="CZ8" s="30"/>
     </row>
     <row r="9" spans="2:106" ht="48.75" customHeight="1">
       <c r="B9" s="5">
         <v>3</v>
       </c>
-      <c r="C9" s="30"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="9">
         <v>45019</v>
@@ -2009,7 +2042,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M9" s="9">
         <v>45021</v>
@@ -2030,7 +2063,7 @@
         <v>0.11</v>
       </c>
       <c r="T9" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U9" s="9">
         <v>45022</v>
@@ -2048,7 +2081,7 @@
         <v>1</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA9" s="9">
         <v>45026</v>
@@ -2089,7 +2122,7 @@
         <v>1</v>
       </c>
       <c r="AN9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AO9" s="9">
         <v>45040</v>
@@ -2132,7 +2165,7 @@
         <v>1</v>
       </c>
       <c r="BB9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="BC9" s="9">
         <v>45041</v>
@@ -2175,7 +2208,7 @@
         <v>1</v>
       </c>
       <c r="BP9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="BQ9" s="9">
         <v>45042</v>
@@ -2193,38 +2226,129 @@
       <c r="BU9" s="10">
         <v>1</v>
       </c>
-      <c r="BV9" s="10"/>
-      <c r="BW9" s="10"/>
-      <c r="BY9" s="28"/>
-      <c r="BZ9" s="22"/>
-      <c r="CA9" s="22"/>
-      <c r="CB9" s="22"/>
-      <c r="CC9" s="22"/>
-      <c r="CD9" s="25"/>
-      <c r="CE9" s="18"/>
-      <c r="CF9" s="17"/>
-      <c r="CG9" s="17"/>
-      <c r="CH9" s="17"/>
-      <c r="CI9" s="17"/>
-      <c r="CJ9" s="16"/>
-      <c r="CK9" s="25"/>
-      <c r="CM9" s="28"/>
-      <c r="CN9" s="22"/>
-      <c r="CO9" s="22"/>
-      <c r="CP9" s="22"/>
-      <c r="CQ9" s="22"/>
-      <c r="CR9" s="25"/>
-      <c r="CS9" s="18"/>
-      <c r="CT9" s="17"/>
-      <c r="CU9" s="17"/>
-      <c r="CV9" s="17"/>
-      <c r="CW9" s="17"/>
-      <c r="CX9" s="16"/>
-      <c r="CY9" s="16"/>
-      <c r="CZ9" s="16"/>
+      <c r="BV9" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="BW9" s="10">
+        <v>0.06</v>
+      </c>
+      <c r="BY9" s="21"/>
+      <c r="BZ9" s="25"/>
+      <c r="CA9" s="25"/>
+      <c r="CB9" s="25"/>
+      <c r="CC9" s="25"/>
+      <c r="CD9" s="28"/>
+      <c r="CE9" s="29"/>
+      <c r="CF9" s="22"/>
+      <c r="CG9" s="22"/>
+      <c r="CH9" s="22"/>
+      <c r="CI9" s="22"/>
+      <c r="CJ9" s="30"/>
+      <c r="CK9" s="28"/>
+      <c r="CM9" s="21"/>
+      <c r="CN9" s="25"/>
+      <c r="CO9" s="25"/>
+      <c r="CP9" s="25"/>
+      <c r="CQ9" s="25"/>
+      <c r="CR9" s="28"/>
+      <c r="CS9" s="29"/>
+      <c r="CT9" s="22"/>
+      <c r="CU9" s="22"/>
+      <c r="CV9" s="22"/>
+      <c r="CW9" s="22"/>
+      <c r="CX9" s="30"/>
+      <c r="CY9" s="30"/>
+      <c r="CZ9" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="111">
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CY7:CY9"/>
+    <mergeCell ref="CZ5:CZ6"/>
+    <mergeCell ref="CZ7:CZ9"/>
+    <mergeCell ref="CV7:CV9"/>
+    <mergeCell ref="CW7:CW9"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CX7:CX9"/>
+    <mergeCell ref="CS7:CS9"/>
+    <mergeCell ref="CT7:CT9"/>
+    <mergeCell ref="CU7:CU9"/>
+    <mergeCell ref="CT5:CU5"/>
+    <mergeCell ref="CV5:CW5"/>
+    <mergeCell ref="CS5:CS6"/>
+    <mergeCell ref="CP7:CP9"/>
+    <mergeCell ref="CQ7:CQ9"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CR7:CR9"/>
+    <mergeCell ref="CM7:CM9"/>
+    <mergeCell ref="CN7:CN9"/>
+    <mergeCell ref="CO7:CO9"/>
+    <mergeCell ref="CI7:CI9"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CJ7:CJ9"/>
+    <mergeCell ref="CK5:CK6"/>
+    <mergeCell ref="CK7:CK9"/>
+    <mergeCell ref="CN5:CO5"/>
+    <mergeCell ref="CP5:CQ5"/>
+    <mergeCell ref="CM5:CM6"/>
+    <mergeCell ref="CF7:CF9"/>
+    <mergeCell ref="CG7:CG9"/>
+    <mergeCell ref="CH7:CH9"/>
+    <mergeCell ref="CC7:CC9"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="CD7:CD9"/>
+    <mergeCell ref="CE5:CE6"/>
+    <mergeCell ref="CE7:CE9"/>
+    <mergeCell ref="BZ7:BZ9"/>
+    <mergeCell ref="CA7:CA9"/>
+    <mergeCell ref="CB7:CB9"/>
+    <mergeCell ref="CB5:CC5"/>
+    <mergeCell ref="CF5:CG5"/>
+    <mergeCell ref="CH5:CI5"/>
+    <mergeCell ref="BY5:BY6"/>
+    <mergeCell ref="BY7:BY9"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BW5:BW6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="BZ5:CA5"/>
+    <mergeCell ref="BP4:BW4"/>
+    <mergeCell ref="BY4:CD4"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="Z4:AF4"/>
+    <mergeCell ref="AH4:AM4"/>
+    <mergeCell ref="AN4:AT4"/>
+    <mergeCell ref="AV4:BA4"/>
+    <mergeCell ref="BB4:BH4"/>
+    <mergeCell ref="BJ4:BO4"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
     <mergeCell ref="CE4:CK4"/>
     <mergeCell ref="CM4:CR4"/>
     <mergeCell ref="CS4:CZ4"/>
@@ -2249,93 +2373,6 @@
     <mergeCell ref="BQ5:BR5"/>
     <mergeCell ref="F4:K4"/>
     <mergeCell ref="L4:R4"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="BZ5:CA5"/>
-    <mergeCell ref="BP4:BW4"/>
-    <mergeCell ref="BY4:CD4"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="Z4:AF4"/>
-    <mergeCell ref="AH4:AM4"/>
-    <mergeCell ref="AN4:AT4"/>
-    <mergeCell ref="AV4:BA4"/>
-    <mergeCell ref="BB4:BH4"/>
-    <mergeCell ref="BJ4:BO4"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BP5:BP6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BW5:BW6"/>
-    <mergeCell ref="BY5:BY6"/>
-    <mergeCell ref="BY7:BY9"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="CF7:CF9"/>
-    <mergeCell ref="CG7:CG9"/>
-    <mergeCell ref="CH7:CH9"/>
-    <mergeCell ref="CC7:CC9"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="CD7:CD9"/>
-    <mergeCell ref="CE5:CE6"/>
-    <mergeCell ref="CE7:CE9"/>
-    <mergeCell ref="BZ7:BZ9"/>
-    <mergeCell ref="CA7:CA9"/>
-    <mergeCell ref="CB7:CB9"/>
-    <mergeCell ref="CB5:CC5"/>
-    <mergeCell ref="CF5:CG5"/>
-    <mergeCell ref="CH5:CI5"/>
-    <mergeCell ref="CP7:CP9"/>
-    <mergeCell ref="CQ7:CQ9"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CR7:CR9"/>
-    <mergeCell ref="CM7:CM9"/>
-    <mergeCell ref="CN7:CN9"/>
-    <mergeCell ref="CO7:CO9"/>
-    <mergeCell ref="CI7:CI9"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CJ7:CJ9"/>
-    <mergeCell ref="CK5:CK6"/>
-    <mergeCell ref="CK7:CK9"/>
-    <mergeCell ref="CN5:CO5"/>
-    <mergeCell ref="CP5:CQ5"/>
-    <mergeCell ref="CM5:CM6"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CY7:CY9"/>
-    <mergeCell ref="CZ5:CZ6"/>
-    <mergeCell ref="CZ7:CZ9"/>
-    <mergeCell ref="CV7:CV9"/>
-    <mergeCell ref="CW7:CW9"/>
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CX7:CX9"/>
-    <mergeCell ref="CS7:CS9"/>
-    <mergeCell ref="CT7:CT9"/>
-    <mergeCell ref="CU7:CU9"/>
-    <mergeCell ref="CT5:CU5"/>
-    <mergeCell ref="CV5:CW5"/>
-    <mergeCell ref="CS5:CS6"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="F7:K9">
@@ -2430,7 +2467,7 @@
   <sheetData>
     <row r="5" spans="4:5">
       <c r="D5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>11</v>
@@ -2438,12 +2475,12 @@
     </row>
     <row r="8" spans="4:5">
       <c r="D8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="4:5">
       <c r="D11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
